--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC3E9D-6289-41B3-8837-1F9924849CCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9C0431-6E39-4A1A-A91F-E767CDF8F001}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="2235" windowWidth="25725" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1395" windowWidth="24675" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>L30D</t>
-  </si>
-  <si>
-    <t>L30S</t>
   </si>
 </sst>
 </file>
@@ -1104,16 +1101,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1226,6 +1217,13 @@
     <xf numFmtId="6" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1240,9 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1541,7 +1536,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -1552,16 +1547,22 @@
     <col min="5" max="5" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="25" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.1796875" style="157" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="13.1796875" style="159" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="43" width="13.1796875" style="18" customWidth="1"/>
-    <col min="44" max="47" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="13.1796875" style="18" customWidth="1"/>
+    <col min="10" max="25" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.1796875" style="155" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="13.1796875" style="157" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="13.1796875" style="18" customWidth="1" collapsed="1"/>
+    <col min="33" max="36" width="13.1796875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="13.1796875" style="180" customWidth="1" collapsed="1"/>
+    <col min="39" max="42" width="13.1796875" style="18" customWidth="1"/>
+    <col min="43" max="47" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="13.1796875" style="180" customWidth="1" collapsed="1"/>
+    <col min="49" max="50" width="13.1796875" style="18" customWidth="1"/>
     <col min="51" max="51" width="13.1796875" style="86" customWidth="1"/>
-    <col min="52" max="53" width="13.1796875" style="18" customWidth="1"/>
-    <col min="54" max="57" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="13.1796875" style="18" customWidth="1"/>
+    <col min="53" max="57" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
@@ -1596,7 +1597,7 @@
       <c r="W1" s="104"/>
       <c r="X1" s="104"/>
       <c r="Y1" s="104"/>
-      <c r="Z1" s="144"/>
+      <c r="Z1" s="142"/>
       <c r="AA1" s="104"/>
       <c r="AB1" s="104"/>
       <c r="AC1" s="104"/>
@@ -1610,7 +1611,7 @@
       <c r="AI1" s="87"/>
       <c r="AJ1" s="87"/>
       <c r="AK1" s="87"/>
-      <c r="AL1" s="98"/>
+      <c r="AL1" s="87"/>
       <c r="AM1" s="98"/>
       <c r="AN1" s="98"/>
       <c r="AO1" s="98"/>
@@ -1620,7 +1621,7 @@
       <c r="AS1" s="98"/>
       <c r="AT1" s="98"/>
       <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
+      <c r="AV1" s="87"/>
       <c r="AW1" s="98"/>
       <c r="AX1" s="98"/>
       <c r="AY1" s="98"/>
@@ -1629,7 +1630,7 @@
       <c r="BB1" s="98"/>
       <c r="BC1" s="98"/>
       <c r="BD1" s="98"/>
-      <c r="BE1" s="174"/>
+      <c r="BE1" s="172"/>
     </row>
     <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -1672,11 +1673,11 @@
       <c r="W2" s="107"/>
       <c r="X2" s="107"/>
       <c r="Y2" s="107"/>
-      <c r="Z2" s="145" t="s">
+      <c r="Z2" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
       <c r="AC2" s="107" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>70</v>
       </c>
       <c r="AQ3" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="102">
         <v>43709</v>
@@ -1855,10 +1856,10 @@
       <c r="AS3" s="102">
         <v>43739</v>
       </c>
-      <c r="AT3" s="140">
+      <c r="AT3" s="138">
         <v>43770</v>
       </c>
-      <c r="AU3" s="171" t="s">
+      <c r="AU3" s="169" t="s">
         <v>96</v>
       </c>
       <c r="AV3" s="96" t="s">
@@ -1870,13 +1871,13 @@
       <c r="AX3" s="102">
         <v>43739</v>
       </c>
-      <c r="AY3" s="140">
+      <c r="AY3" s="138">
         <v>43770</v>
       </c>
       <c r="AZ3" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="BA3" s="172" t="s">
+      <c r="BA3" s="170" t="s">
         <v>96</v>
       </c>
       <c r="BB3" s="102">
@@ -1885,10 +1886,10 @@
       <c r="BC3" s="102">
         <v>43739</v>
       </c>
-      <c r="BD3" s="173">
+      <c r="BD3" s="171">
         <v>43770</v>
       </c>
-      <c r="BE3" s="175" t="s">
+      <c r="BE3" s="173" t="s">
         <v>96</v>
       </c>
       <c r="BF3" s="2"/>
@@ -1896,14 +1897,14 @@
     </row>
     <row r="4" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="120"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="121" t="e">
         <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -1936,20 +1937,20 @@
         <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="146"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="146"/>
-      <c r="AD4" s="146"/>
-      <c r="AE4" s="146"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="152"/>
+      <c r="AB4" s="152"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
       <c r="AF4" s="122" t="str">
         <f>IFERROR(VLOOKUP($B4,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -1962,7 +1963,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="147" t="str">
+      <c r="AI4" s="145" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -1970,31 +1971,31 @@
         <f t="shared" ref="AJ4:AJ16" si="1">IFERROR(AF4-AI4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK4" s="176" t="str">
+      <c r="AK4" s="174" t="str">
         <f>IFERROR(IF(AQ4="n.a.", -BA4, IF(BA4="n.a.", AQ4, AQ4-BA4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL4" s="132" t="str">
+      <c r="AL4" s="179" t="str">
         <f>IFERROR(VLOOKUP($B4,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
       <c r="AM4" s="123" t="str">
-        <f t="shared" ref="AM4:AO17" si="2">IFERROR(AR4/J4*30,"n.a.")</f>
+        <f>IFERROR(AR4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN4" s="126" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(AS4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="123" t="str">
-        <f>IFERROR(AT4/L4*30,"n.a.")</f>
+        <f>IFERROR(AT4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AP4" s="124" t="str">
-        <f t="shared" ref="AP4:AP16" si="3">IFERROR(-AO4+AL4,"n.a.")</f>
+        <f t="shared" ref="AP4:AP16" si="2">IFERROR(-AO4+AL4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ4" s="147" t="str">
+      <c r="AQ4" s="145" t="str">
         <f>IFERROR(AU4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2014,27 +2015,27 @@
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4" s="135" t="str">
+      <c r="AV4" s="128" t="str">
         <f>IFERROR(VLOOKUP($B4,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW4" s="123" t="str">
-        <f t="shared" ref="AW4:AY17" si="4">IFERROR(BB4/J4*30,"n.a.")</f>
+        <f>IFERROR(BB4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="123" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BC4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="119" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BD4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ4" s="124" t="str">
-        <f t="shared" ref="AZ4:AZ14" si="5">IFERROR(-AV4+AY4, "n.a.")</f>
+        <f t="shared" ref="AZ4:AZ14" si="3">IFERROR(-AV4+AY4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA4" s="147" t="str">
+      <c r="BA4" s="145" t="str">
         <f>IFERROR(BE4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2050,21 +2051,21 @@
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4" s="134" t="e">
+      <c r="BE4" s="133" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="127"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
       <c r="J5" s="121" t="e">
         <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2097,20 +2098,20 @@
         <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="146"/>
-      <c r="S5" s="146"/>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="154"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="146"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
       <c r="AF5" s="122" t="str">
         <f>IFERROR(VLOOKUP($B5,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2123,7 +2124,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="148" t="str">
+      <c r="AI5" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2131,43 +2132,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK5" s="176" t="str">
-        <f t="shared" ref="AK5:AK17" si="6">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
+      <c r="AK5" s="174" t="str">
+        <f t="shared" ref="AK5:AK17" si="4">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL5" s="132" t="str">
+      <c r="AL5" s="179" t="str">
         <f>IFERROR(VLOOKUP($B5,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM5" s="129" t="str">
+      <c r="AM5" s="123" t="str">
+        <f t="shared" ref="AM5:AM16" si="5">IFERROR(AR5/J5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN5" s="126" t="str">
+        <f t="shared" ref="AN5:AN16" si="6">IFERROR(AS5/K5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AO5" s="123" t="str">
+        <f t="shared" ref="AO5:AO16" si="7">IFERROR(AT5/L5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AP5" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="126" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="145" t="str">
+        <f t="shared" ref="AQ5:AQ17" si="8">IFERROR(AU5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP5" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ5" s="147" t="str">
-        <f t="shared" ref="AQ5:AQ17" si="7">IFERROR(AU5/M5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AR5" s="134" t="e">
+      <c r="AR5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS5" s="134" t="e">
+      <c r="AS5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT5" s="134" t="e">
+      <c r="AT5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2175,57 +2176,57 @@
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5" s="135" t="str">
+      <c r="AV5" s="128" t="str">
         <f>IFERROR(VLOOKUP($B5,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW5" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW5" s="123" t="str">
+        <f t="shared" ref="AW5:AW16" si="9">IFERROR(BB5/J5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX5" s="123" t="str">
+        <f t="shared" ref="AX5:AX16" si="10">IFERROR(BC5/K5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY5" s="119" t="str">
+        <f t="shared" ref="AY5:AY16" si="11">IFERROR(BD5/L5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ5" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA5" s="147" t="str">
-        <f t="shared" ref="BA5:BA14" si="8">IFERROR(BE5/M5*30,"n.a.")</f>
+      <c r="BA5" s="145" t="str">
+        <f t="shared" ref="BA5:BA14" si="12">IFERROR(BE5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB5" s="134" t="e">
+      <c r="BB5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5" s="134" t="e">
+      <c r="BC5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5" s="134" t="e">
+      <c r="BD5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5" s="134" t="e">
+      <c r="BE5" s="133" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="127"/>
-      <c r="B6" s="138"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
       <c r="J6" s="121" t="e">
         <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2258,20 +2259,20 @@
         <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="154"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="146"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="144"/>
       <c r="AF6" s="122" t="str">
         <f>IFERROR(VLOOKUP($B6,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2284,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="148" t="str">
+      <c r="AI6" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2292,43 +2293,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK6" s="176" t="str">
+      <c r="AK6" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL6" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B6,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM6" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN6" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL6" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B6,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM6" s="129" t="str">
+      <c r="AO6" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP6" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN6" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ6" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP6" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ6" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR6" s="134" t="e">
+      <c r="AR6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS6" s="134" t="e">
+      <c r="AS6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT6" s="134" t="e">
+      <c r="AT6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2336,57 +2337,57 @@
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6" s="135" t="str">
+      <c r="AV6" s="128" t="str">
         <f>IFERROR(VLOOKUP($B6,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW6" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW6" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX6" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY6" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ6" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA6" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA6" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB6" s="134" t="e">
+      <c r="BB6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6" s="134" t="e">
+      <c r="BC6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6" s="134" t="e">
+      <c r="BD6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6" s="134" t="e">
+      <c r="BE6" s="133" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="127"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
       <c r="J7" s="121" t="e">
         <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2419,20 +2420,20 @@
         <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="146"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
+      <c r="W7" s="144"/>
+      <c r="X7" s="144"/>
+      <c r="Y7" s="144"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="144"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="144"/>
       <c r="AF7" s="122" t="str">
         <f>IFERROR(VLOOKUP($B7,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2445,7 +2446,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="148" t="str">
+      <c r="AI7" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2453,43 +2454,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK7" s="176" t="str">
+      <c r="AK7" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL7" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B7,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM7" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN7" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL7" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B7,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM7" s="129" t="str">
+      <c r="AO7" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP7" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN7" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ7" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP7" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ7" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR7" s="134" t="e">
+      <c r="AR7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS7" s="134" t="e">
+      <c r="AS7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT7" s="134" t="e">
+      <c r="AT7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2497,57 +2498,57 @@
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7" s="135" t="str">
+      <c r="AV7" s="128" t="str">
         <f>IFERROR(VLOOKUP($B7,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW7" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW7" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX7" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY7" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ7" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA7" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA7" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB7" s="134" t="e">
+      <c r="BB7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7" s="134" t="e">
+      <c r="BC7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7" s="134" t="e">
+      <c r="BD7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7" s="134" t="e">
+      <c r="BE7" s="133" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="127"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="121" t="e">
         <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2580,20 +2581,20 @@
         <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="146"/>
-      <c r="S8" s="146"/>
-      <c r="T8" s="146"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="146"/>
-      <c r="AE8" s="146"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="144"/>
+      <c r="Y8" s="144"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="144"/>
+      <c r="AD8" s="144"/>
+      <c r="AE8" s="144"/>
       <c r="AF8" s="122" t="str">
         <f>IFERROR(VLOOKUP($B8,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2606,7 +2607,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="148" t="str">
+      <c r="AI8" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2614,43 +2615,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK8" s="176" t="str">
+      <c r="AK8" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL8" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B8,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM8" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN8" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL8" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B8,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM8" s="129" t="str">
+      <c r="AO8" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP8" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN8" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ8" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP8" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ8" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR8" s="134" t="e">
+      <c r="AR8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS8" s="134" t="e">
+      <c r="AS8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT8" s="134" t="e">
+      <c r="AT8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2658,57 +2659,57 @@
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8" s="135" t="str">
+      <c r="AV8" s="128" t="str">
         <f>IFERROR(VLOOKUP($B8,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW8" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW8" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX8" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY8" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ8" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA8" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA8" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB8" s="134" t="e">
+      <c r="BB8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8" s="134" t="e">
+      <c r="BC8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8" s="134" t="e">
+      <c r="BD8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8" s="134" t="e">
+      <c r="BE8" s="133" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="127"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="121" t="e">
         <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2741,20 +2742,20 @@
         <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="152"/>
+      <c r="AA9" s="152"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
       <c r="AF9" s="122" t="str">
         <f>IFERROR(VLOOKUP($B9,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2767,7 +2768,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="148" t="str">
+      <c r="AI9" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2775,43 +2776,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK9" s="176" t="str">
+      <c r="AK9" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL9" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B9,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM9" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN9" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL9" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B9,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM9" s="129" t="str">
+      <c r="AO9" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP9" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN9" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ9" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP9" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ9" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR9" s="134" t="e">
+      <c r="AR9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS9" s="134" t="e">
+      <c r="AS9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT9" s="134" t="e">
+      <c r="AT9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2819,57 +2820,57 @@
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9" s="135" t="str">
+      <c r="AV9" s="128" t="str">
         <f>IFERROR(VLOOKUP($B9,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW9" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW9" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX9" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY9" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ9" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA9" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA9" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB9" s="134" t="e">
+      <c r="BB9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9" s="134" t="e">
+      <c r="BC9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9" s="134" t="e">
+      <c r="BD9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9" s="134" t="e">
+      <c r="BE9" s="133" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="127"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
       <c r="J10" s="121" t="e">
         <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2902,20 +2903,20 @@
         <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146"/>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="146"/>
-      <c r="AE10" s="146"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="144"/>
+      <c r="Y10" s="144"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
       <c r="AF10" s="122" t="str">
         <f>IFERROR(VLOOKUP($B10,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2928,7 +2929,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="148" t="str">
+      <c r="AI10" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2936,43 +2937,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK10" s="176" t="str">
+      <c r="AK10" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL10" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B10,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM10" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN10" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL10" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B10,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM10" s="129" t="str">
+      <c r="AO10" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP10" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN10" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ10" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP10" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ10" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR10" s="134" t="e">
+      <c r="AR10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS10" s="134" t="e">
+      <c r="AS10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT10" s="134" t="e">
+      <c r="AT10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2980,57 +2981,57 @@
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV10" s="135" t="str">
+      <c r="AV10" s="128" t="str">
         <f>IFERROR(VLOOKUP($B10,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW10" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW10" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX10" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY10" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ10" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA10" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA10" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB10" s="134" t="e">
+      <c r="BB10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC10" s="134" t="e">
+      <c r="BC10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD10" s="134" t="e">
+      <c r="BD10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE10" s="134" t="e">
+      <c r="BE10" s="133" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="127"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
       <c r="J11" s="121" t="e">
         <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3063,20 +3064,20 @@
         <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="144"/>
+      <c r="Y11" s="144"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="152"/>
+      <c r="AC11" s="144"/>
+      <c r="AD11" s="144"/>
+      <c r="AE11" s="144"/>
       <c r="AF11" s="122" t="str">
         <f>IFERROR(VLOOKUP($B11,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3089,7 +3090,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="148" t="str">
+      <c r="AI11" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3097,43 +3098,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK11" s="176" t="str">
+      <c r="AK11" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL11" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B11,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM11" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN11" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL11" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B11,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM11" s="129" t="str">
+      <c r="AO11" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP11" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN11" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ11" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP11" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ11" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR11" s="134" t="e">
+      <c r="AR11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS11" s="134" t="e">
+      <c r="AS11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT11" s="134" t="e">
+      <c r="AT11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3141,57 +3142,57 @@
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11" s="135" t="str">
+      <c r="AV11" s="128" t="str">
         <f>IFERROR(VLOOKUP($B11,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW11" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW11" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX11" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY11" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ11" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA11" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA11" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB11" s="134" t="e">
+      <c r="BB11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11" s="134" t="e">
+      <c r="BC11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="134" t="e">
+      <c r="BD11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11" s="134" t="e">
+      <c r="BE11" s="133" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="127"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="121" t="e">
         <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3224,20 +3225,20 @@
         <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="146"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="146"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="144"/>
       <c r="AF12" s="122" t="str">
         <f>IFERROR(VLOOKUP($B12,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3250,7 +3251,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="148" t="str">
+      <c r="AI12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3258,43 +3259,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK12" s="176" t="str">
+      <c r="AK12" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL12" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B12,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM12" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN12" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL12" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B12,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM12" s="129" t="str">
+      <c r="AO12" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP12" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN12" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ12" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP12" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ12" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR12" s="134" t="e">
+      <c r="AR12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS12" s="134" t="e">
+      <c r="AS12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT12" s="134" t="e">
+      <c r="AT12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3302,57 +3303,57 @@
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV12" s="135" t="str">
+      <c r="AV12" s="128" t="str">
         <f>IFERROR(VLOOKUP($B12,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW12" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW12" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX12" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY12" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ12" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA12" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA12" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB12" s="134" t="e">
+      <c r="BB12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC12" s="134" t="e">
+      <c r="BC12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD12" s="134" t="e">
+      <c r="BD12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE12" s="134" t="e">
+      <c r="BE12" s="133" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="127"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
       <c r="J13" s="121" t="e">
         <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3385,20 +3386,20 @@
         <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="146"/>
-      <c r="S13" s="146"/>
-      <c r="T13" s="146"/>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146"/>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="146"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
       <c r="AF13" s="122" t="str">
         <f>IFERROR(VLOOKUP($B13,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3411,7 +3412,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="148" t="str">
+      <c r="AI13" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3419,43 +3420,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK13" s="176" t="str">
+      <c r="AK13" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL13" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B13,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN13" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL13" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B13,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM13" s="129" t="str">
+      <c r="AO13" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP13" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN13" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ13" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP13" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ13" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR13" s="134" t="e">
+      <c r="AR13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS13" s="134" t="e">
+      <c r="AS13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT13" s="134" t="e">
+      <c r="AT13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3463,57 +3464,57 @@
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV13" s="135" t="str">
+      <c r="AV13" s="128" t="str">
         <f>IFERROR(VLOOKUP($B13,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW13" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW13" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX13" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY13" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ13" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA13" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA13" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB13" s="134" t="e">
+      <c r="BB13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC13" s="134" t="e">
+      <c r="BC13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD13" s="134" t="e">
+      <c r="BD13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE13" s="134" t="e">
+      <c r="BE13" s="133" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="127"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="121" t="e">
         <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3546,20 +3547,20 @@
         <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146"/>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="146"/>
-      <c r="AE14" s="146"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="144"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="144"/>
+      <c r="AD14" s="144"/>
+      <c r="AE14" s="144"/>
       <c r="AF14" s="122" t="str">
         <f>IFERROR(VLOOKUP($B14,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3572,7 +3573,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="148" t="str">
+      <c r="AI14" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3580,43 +3581,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK14" s="176" t="str">
+      <c r="AK14" s="174" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL14" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B14,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="123" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN14" s="126" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL14" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B14,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM14" s="129" t="str">
+      <c r="AO14" s="123" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP14" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN14" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ14" s="145" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP14" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ14" s="147" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR14" s="134" t="e">
+      <c r="AR14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS14" s="134" t="e">
+      <c r="AS14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT14" s="134" t="e">
+      <c r="AT14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3624,57 +3625,57 @@
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV14" s="135" t="str">
+      <c r="AV14" s="128" t="str">
         <f>IFERROR(VLOOKUP($B14,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW14" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW14" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="129" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX14" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="116" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY14" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ14" s="130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA14" s="147" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA14" s="145" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB14" s="134" t="e">
+      <c r="BB14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC14" s="134" t="e">
+      <c r="BC14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD14" s="134" t="e">
+      <c r="BD14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE14" s="134" t="e">
+      <c r="BE14" s="133" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="127"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
       <c r="J15" s="121" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3707,77 +3708,77 @@
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="146"/>
-      <c r="S15" s="146"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146"/>
-      <c r="W15" s="146"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="146"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="146"/>
-      <c r="AE15" s="146"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="144"/>
+      <c r="Y15" s="144"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="152"/>
+      <c r="AB15" s="152"/>
+      <c r="AC15" s="144"/>
+      <c r="AD15" s="144"/>
+      <c r="AE15" s="144"/>
       <c r="AF15" s="122" t="str">
         <f>IFERROR(VLOOKUP($B15,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
       </c>
       <c r="AG15" s="129" t="str">
-        <f t="shared" ref="AG15" si="9">IFERROR(IF(AM15="n.a.", -AW15, IF(AW15="n.a.", AM15, AM15-AW15)),"n.a.")</f>
+        <f t="shared" ref="AG15" si="13">IFERROR(IF(AM15="n.a.", -AW15, IF(AW15="n.a.", AM15, AM15-AW15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="129" t="str">
-        <f t="shared" ref="AH15" si="10">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15" si="14">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="148" t="str">
-        <f t="shared" ref="AI15" si="11">IFERROR(IF(AO15="n.a.", -AY15, IF(AY15="n.a.", AO15, AO15-AY15)),"n.a.")</f>
+      <c r="AI15" s="146" t="str">
+        <f t="shared" ref="AI15" si="15">IFERROR(IF(AO15="n.a.", -AY15, IF(AY15="n.a.", AO15, AO15-AY15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AJ15" s="131" t="str">
-        <f t="shared" ref="AJ15" si="12">IFERROR(AF15-AI15, "n.a.")</f>
+        <f t="shared" ref="AJ15" si="16">IFERROR(AF15-AI15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK15" s="176" t="str">
-        <f t="shared" ref="AK15" si="13">IFERROR(IF(AQ15="n.a.", -BA15, IF(BA15="n.a.", AQ15, AQ15-BA15)),"n.a.")</f>
+      <c r="AK15" s="174" t="str">
+        <f t="shared" ref="AK15" si="17">IFERROR(IF(AQ15="n.a.", -BA15, IF(BA15="n.a.", AQ15, AQ15-BA15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL15" s="132" t="str">
+      <c r="AL15" s="179" t="str">
         <f>IFERROR(VLOOKUP($B15,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM15" s="129" t="str">
-        <f t="shared" ref="AM15" si="14">IFERROR(AR15/J15*30,"n.a.")</f>
+      <c r="AM15" s="123" t="str">
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN15" s="133" t="str">
-        <f t="shared" ref="AN15" si="15">IFERROR(AS15/K15*30,"n.a.")</f>
+      <c r="AN15" s="126" t="str">
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="129" t="str">
-        <f t="shared" ref="AO15" si="16">IFERROR(AT15/L15*30,"n.a.")</f>
+      <c r="AO15" s="123" t="str">
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AP15" s="130" t="str">
-        <f t="shared" ref="AP15" si="17">IFERROR(-AO15+AL15,"n.a.")</f>
+        <f t="shared" ref="AP15" si="18">IFERROR(-AO15+AL15,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ15" s="147" t="str">
-        <f t="shared" ref="AQ15" si="18">IFERROR(AU15/M15*30,"n.a.")</f>
+      <c r="AQ15" s="145" t="str">
+        <f t="shared" ref="AQ15" si="19">IFERROR(AU15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AR15" s="134" t="e">
+      <c r="AR15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS15" s="134" t="e">
+      <c r="AS15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT15" s="134" t="e">
+      <c r="AT15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3785,103 +3786,103 @@
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV15" s="135" t="str">
+      <c r="AV15" s="128" t="str">
         <f>IFERROR(VLOOKUP($B15,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW15" s="129" t="str">
-        <f t="shared" ref="AW15:AW16" si="19">IFERROR(BB15/J15*30,"n.a.")</f>
+      <c r="AW15" s="123" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX15" s="129" t="str">
-        <f t="shared" ref="AX15:AX16" si="20">IFERROR(BC15/K15*30,"n.a.")</f>
+      <c r="AX15" s="123" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY15" s="116" t="str">
-        <f t="shared" ref="AY15:AY16" si="21">IFERROR(BD15/L15*30,"n.a.")</f>
+      <c r="AY15" s="119" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ15" s="130" t="str">
-        <f t="shared" ref="AZ15:AZ16" si="22">IFERROR(-AV15+AY15, "n.a.")</f>
+        <f t="shared" ref="AZ15:AZ16" si="20">IFERROR(-AV15+AY15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA15" s="147" t="str">
-        <f t="shared" ref="BA15:BA16" si="23">IFERROR(BE15/M15*30,"n.a.")</f>
+      <c r="BA15" s="145" t="str">
+        <f t="shared" ref="BA15:BA16" si="21">IFERROR(BE15/M15*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB15" s="134" t="e">
+      <c r="BB15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC15" s="134" t="e">
+      <c r="BC15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD15" s="134" t="e">
+      <c r="BD15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE15" s="134" t="e">
+      <c r="BE15" s="133" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="170" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" s="168" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="127"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="134" t="e">
+      <c r="B16" s="136"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="134" t="e">
+      <c r="K16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="134" t="e">
+      <c r="L16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="134" t="e">
+      <c r="M16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="134" t="e">
+      <c r="N16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="134" t="e">
+      <c r="O16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="134" t="e">
+      <c r="P16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="134" t="e">
+      <c r="Q16" s="133" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="169"/>
-      <c r="AB16" s="169"/>
-      <c r="AC16" s="168"/>
-      <c r="AD16" s="168"/>
-      <c r="AE16" s="168"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="167"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="167"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
       <c r="AF16" s="128" t="str">
         <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3894,7 +3895,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI16" s="148" t="str">
+      <c r="AI16" s="146" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3902,246 +3903,246 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK16" s="177" t="str">
+      <c r="AK16" s="175" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="179" t="str">
+        <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN16" s="132" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL16" s="132" t="str">
-        <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM16" s="129" t="str">
+      <c r="AO16" s="129" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP16" s="130" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN16" s="133" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ16" s="146" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="129" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP16" s="130" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ16" s="148" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR16" s="134" t="e">
+      <c r="AR16" s="133" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS16" s="134" t="e">
+      <c r="AS16" s="133" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT16" s="134" t="e">
+      <c r="AT16" s="133" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU16" s="134" t="e">
+      <c r="AU16" s="133" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV16" s="135" t="str">
+      <c r="AV16" s="128" t="str">
         <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW16" s="129" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="129" t="str">
+        <f t="shared" si="10"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AY16" s="116" t="str">
+        <f t="shared" si="11"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AZ16" s="130" t="str">
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AY16" s="116" t="str">
+      <c r="BA16" s="146" t="str">
         <f t="shared" si="21"/>
         <v>n.a.</v>
       </c>
-      <c r="AZ16" s="130" t="str">
+      <c r="BB16" s="133" t="e">
+        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC16" s="133" t="e">
+        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD16" s="133" t="e">
+        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE16" s="133" t="e">
+        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159">
+        <f>SUM(C4:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="159">
+        <f>SUM(D4:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="160">
+        <f>SUM(E4:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="158"/>
+      <c r="J17" s="160" t="e">
+        <f t="shared" ref="J17:Q17" si="22">SUM(J4:J16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="160" t="e">
         <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q17" s="160" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R17" s="160"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="161"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="159"/>
+      <c r="AG17" s="159" t="str">
+        <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="BA16" s="148" t="str">
+      <c r="AH17" s="159" t="str">
+        <f t="shared" si="0"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AI17" s="159" t="str">
+        <f>IFERROR(IF(AO17="n.a.", -AY17, IF(AY17="n.a.", AO17, AO17-AY17)),"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AJ17" s="159"/>
+      <c r="AK17" s="178" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="163"/>
+      <c r="AM17" s="164" t="str">
+        <f t="shared" ref="AM4:AO17" si="23">IFERROR(AR17/J17*30,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN17" s="164" t="str">
         <f t="shared" si="23"/>
         <v>n.a.</v>
       </c>
-      <c r="BB16" s="134" t="e">
-        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC16" s="134" t="e">
-        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD16" s="134" t="e">
-        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE16" s="134" t="e">
-        <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:57" s="4" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="160" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="161">
-        <f>SUM(C4:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="161">
-        <f>SUM(D4:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="162">
-        <f>SUM(E4:E16)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="162" t="e">
-        <f t="shared" ref="J17:Q17" si="24">SUM(J4:J16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="162" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="161" t="str">
-        <f t="shared" si="0"/>
+      <c r="AO17" s="164" t="str">
+        <f t="shared" si="23"/>
         <v>n.a.</v>
       </c>
-      <c r="AH17" s="161" t="str">
-        <f t="shared" si="0"/>
+      <c r="AP17" s="159"/>
+      <c r="AQ17" s="176" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AI17" s="161" t="str">
-        <f>IFERROR(IF(AO17="n.a.", -AY17, IF(AY17="n.a.", AO17, AO17-AY17)),"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AJ17" s="161"/>
-      <c r="AK17" s="185" t="str">
-        <f t="shared" si="6"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AL17" s="165"/>
-      <c r="AM17" s="166" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AN17" s="166" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AO17" s="166" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP17" s="161"/>
-      <c r="AQ17" s="178" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR17" s="162" t="e">
+      <c r="AR17" s="160" t="e">
         <f>SUM(AR4:AR16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS17" s="162" t="e">
+      <c r="AS17" s="160" t="e">
         <f>SUM(AS4:AS16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT17" s="162" t="e">
+      <c r="AT17" s="160" t="e">
         <f>SUM(AT4:AT16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU17" s="162" t="e">
+      <c r="AU17" s="160" t="e">
         <f>SUM(AU4:AU16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV17" s="165"/>
-      <c r="AW17" s="167" t="str">
-        <f t="shared" si="4"/>
+      <c r="AV17" s="163"/>
+      <c r="AW17" s="165" t="str">
+        <f t="shared" ref="AW4:AY17" si="24">IFERROR(BB17/J17*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX17" s="167" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX17" s="165" t="str">
+        <f t="shared" si="24"/>
         <v>n.a.</v>
       </c>
-      <c r="AY17" s="166" t="str">
+      <c r="AY17" s="164" t="str">
         <f>IFERROR(BD17/L17*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ17" s="161"/>
-      <c r="BA17" s="161" t="str">
+      <c r="AZ17" s="159"/>
+      <c r="BA17" s="159" t="str">
         <f>IFERROR(BE17/M17*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB17" s="162" t="e">
+      <c r="BB17" s="160" t="e">
         <f>SUM(BB4:BB16)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC17" s="162" t="e">
+      <c r="BC17" s="160" t="e">
         <f>SUM(BC4:BC16)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD17" s="162" t="e">
+      <c r="BD17" s="160" t="e">
         <f>SUM(BD4:BD16)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE17" s="179" t="e">
+      <c r="BE17" s="177" t="e">
         <f>SUM(BE4:BE16)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:57" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="17"/>
@@ -4167,9 +4168,9 @@
       <c r="W18" s="17"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="17"/>
-      <c r="Z18" s="156"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
       <c r="AC18" s="17"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17"/>
@@ -4179,7 +4180,7 @@
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
+      <c r="AL18" s="117"/>
       <c r="AM18" s="17"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="117" t="s">
@@ -4191,7 +4192,7 @@
       <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
       <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
+      <c r="AV18" s="117"/>
       <c r="AW18" s="17"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="118" t="s">
@@ -4230,9 +4231,9 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="156"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17"/>
@@ -4242,7 +4243,7 @@
       <c r="AI19" s="17"/>
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
-      <c r="AL19" s="17"/>
+      <c r="AL19" s="117"/>
       <c r="AM19" s="17"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="17"/>
@@ -4252,7 +4253,7 @@
       <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
       <c r="AU19" s="17"/>
-      <c r="AV19" s="17"/>
+      <c r="AV19" s="117"/>
       <c r="AW19" s="17"/>
       <c r="AX19" s="17"/>
       <c r="AY19" s="85"/>
@@ -4289,9 +4290,9 @@
       <c r="W20" s="17"/>
       <c r="X20" s="17"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="156"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
       <c r="AC20" s="17"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17"/>
@@ -4301,7 +4302,7 @@
       <c r="AI20" s="17"/>
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
-      <c r="AL20" s="17"/>
+      <c r="AL20" s="117"/>
       <c r="AM20" s="17"/>
       <c r="AN20" s="17"/>
       <c r="AO20" s="17"/>
@@ -4311,7 +4312,7 @@
       <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
       <c r="AU20" s="17"/>
-      <c r="AV20" s="17"/>
+      <c r="AV20" s="117"/>
       <c r="AW20" s="17"/>
       <c r="AX20" s="17"/>
       <c r="AY20" s="85"/>
@@ -4348,9 +4349,9 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="156"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -4360,7 +4361,7 @@
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
+      <c r="AL21" s="117"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="17"/>
       <c r="AO21" s="17"/>
@@ -4370,7 +4371,7 @@
       <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
+      <c r="AV21" s="117"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="85"/>
@@ -4407,9 +4408,9 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -4419,7 +4420,7 @@
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
+      <c r="AL22" s="117"/>
       <c r="AM22" s="17"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
@@ -4429,7 +4430,7 @@
       <c r="AS22" s="17"/>
       <c r="AT22" s="17"/>
       <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="AV22" s="117"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="85"/>
@@ -4466,9 +4467,9 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="156"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
@@ -4478,7 +4479,7 @@
       <c r="AI23" s="17"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
+      <c r="AL23" s="117"/>
       <c r="AM23" s="17"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
@@ -4488,7 +4489,7 @@
       <c r="AS23" s="17"/>
       <c r="AT23" s="17"/>
       <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="AV23" s="117"/>
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
       <c r="AY23" s="85"/>
@@ -4525,9 +4526,9 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="156"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
+      <c r="Z24" s="154"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -4537,7 +4538,7 @@
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
+      <c r="AL24" s="117"/>
       <c r="AM24" s="17"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
@@ -4547,7 +4548,7 @@
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="AV24" s="117"/>
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
       <c r="AY24" s="85"/>
@@ -4584,9 +4585,9 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="156"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
+      <c r="Z25" s="154"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -4596,7 +4597,7 @@
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
+      <c r="AL25" s="117"/>
       <c r="AM25" s="17"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
@@ -4606,7 +4607,7 @@
       <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
       <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="AV25" s="117"/>
       <c r="AW25" s="17"/>
       <c r="AX25" s="17"/>
       <c r="AY25" s="85"/>
@@ -4643,9 +4644,9 @@
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -4655,7 +4656,7 @@
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
+      <c r="AL26" s="117"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -4665,7 +4666,7 @@
       <c r="AS26" s="17"/>
       <c r="AT26" s="17"/>
       <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="AV26" s="117"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
       <c r="AY26" s="85"/>
@@ -4702,9 +4703,9 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="156"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
@@ -4714,7 +4715,7 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
+      <c r="AL27" s="117"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
@@ -4724,7 +4725,7 @@
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="AV27" s="117"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
       <c r="AY27" s="85"/>
@@ -4761,9 +4762,9 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="156"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -4773,7 +4774,7 @@
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
+      <c r="AL28" s="117"/>
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
@@ -4783,7 +4784,7 @@
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="AV28" s="117"/>
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
       <c r="AY28" s="85"/>
@@ -4820,9 +4821,9 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="156"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -4832,7 +4833,7 @@
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
+      <c r="AL29" s="117"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
@@ -4842,7 +4843,7 @@
       <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
+      <c r="AV29" s="117"/>
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
       <c r="AY29" s="85"/>
@@ -4879,9 +4880,9 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="156"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
@@ -4891,7 +4892,7 @@
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
+      <c r="AL30" s="117"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
@@ -4901,7 +4902,7 @@
       <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
+      <c r="AV30" s="117"/>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
       <c r="AY30" s="85"/>
@@ -4938,9 +4939,9 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="156"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -4950,7 +4951,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
+      <c r="AL31" s="117"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
@@ -4960,7 +4961,7 @@
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
+      <c r="AV31" s="117"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
       <c r="AY31" s="85"/>
@@ -4997,9 +4998,9 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="156"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
+      <c r="Z32" s="154"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
@@ -5009,7 +5010,7 @@
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
+      <c r="AL32" s="117"/>
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
@@ -5019,7 +5020,7 @@
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
+      <c r="AV32" s="117"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
       <c r="AY32" s="85"/>
@@ -5056,9 +5057,9 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="156"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
+      <c r="Z33" s="154"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
@@ -5068,7 +5069,7 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
+      <c r="AL33" s="117"/>
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="17"/>
@@ -5078,7 +5079,7 @@
       <c r="AS33" s="17"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
+      <c r="AV33" s="117"/>
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
       <c r="AY33" s="85"/>
@@ -5115,9 +5116,9 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="156"/>
-      <c r="AA34" s="158"/>
-      <c r="AB34" s="158"/>
+      <c r="Z34" s="154"/>
+      <c r="AA34" s="156"/>
+      <c r="AB34" s="156"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -5127,7 +5128,7 @@
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="117"/>
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="17"/>
@@ -5137,7 +5138,7 @@
       <c r="AS34" s="17"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
+      <c r="AV34" s="117"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
       <c r="AY34" s="85"/>
@@ -5174,9 +5175,9 @@
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="156"/>
-      <c r="AA35" s="158"/>
-      <c r="AB35" s="158"/>
+      <c r="Z35" s="154"/>
+      <c r="AA35" s="156"/>
+      <c r="AB35" s="156"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
@@ -5186,7 +5187,7 @@
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="117"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
@@ -5196,7 +5197,7 @@
       <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
+      <c r="AV35" s="117"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
       <c r="AY35" s="85"/>
@@ -5233,9 +5234,9 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
-      <c r="Z36" s="156"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="158"/>
+      <c r="Z36" s="154"/>
+      <c r="AA36" s="156"/>
+      <c r="AB36" s="156"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
@@ -5245,7 +5246,7 @@
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
+      <c r="AL36" s="117"/>
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
@@ -5255,7 +5256,7 @@
       <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
+      <c r="AV36" s="117"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
       <c r="AY36" s="85"/>
@@ -5292,9 +5293,9 @@
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
-      <c r="Z37" s="156"/>
-      <c r="AA37" s="158"/>
-      <c r="AB37" s="158"/>
+      <c r="Z37" s="154"/>
+      <c r="AA37" s="156"/>
+      <c r="AB37" s="156"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
@@ -5304,7 +5305,7 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
+      <c r="AL37" s="117"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
@@ -5314,7 +5315,7 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
+      <c r="AV37" s="117"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="17"/>
       <c r="AY37" s="85"/>
@@ -5351,9 +5352,9 @@
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="156"/>
-      <c r="AA38" s="158"/>
-      <c r="AB38" s="158"/>
+      <c r="Z38" s="154"/>
+      <c r="AA38" s="156"/>
+      <c r="AB38" s="156"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
@@ -5363,7 +5364,7 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
+      <c r="AL38" s="117"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
       <c r="AO38" s="17"/>
@@ -5373,7 +5374,7 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
+      <c r="AV38" s="117"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
       <c r="AY38" s="85"/>
@@ -5410,9 +5411,9 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="156"/>
-      <c r="AA39" s="158"/>
-      <c r="AB39" s="158"/>
+      <c r="Z39" s="154"/>
+      <c r="AA39" s="156"/>
+      <c r="AB39" s="156"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
@@ -5422,7 +5423,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
+      <c r="AL39" s="117"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
@@ -5432,7 +5433,7 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
+      <c r="AV39" s="117"/>
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
       <c r="AY39" s="85"/>
@@ -5469,9 +5470,9 @@
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="156"/>
-      <c r="AA40" s="158"/>
-      <c r="AB40" s="158"/>
+      <c r="Z40" s="154"/>
+      <c r="AA40" s="156"/>
+      <c r="AB40" s="156"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
@@ -5481,7 +5482,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
+      <c r="AL40" s="117"/>
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
@@ -5491,7 +5492,7 @@
       <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
+      <c r="AV40" s="117"/>
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
       <c r="AY40" s="85"/>
@@ -5528,9 +5529,9 @@
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="156"/>
-      <c r="AA41" s="158"/>
-      <c r="AB41" s="158"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="156"/>
+      <c r="AB41" s="156"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
@@ -5540,7 +5541,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
+      <c r="AL41" s="117"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
@@ -5550,7 +5551,7 @@
       <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
+      <c r="AV41" s="117"/>
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
       <c r="AY41" s="85"/>
@@ -5587,9 +5588,9 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="156"/>
-      <c r="AA42" s="158"/>
-      <c r="AB42" s="158"/>
+      <c r="Z42" s="154"/>
+      <c r="AA42" s="156"/>
+      <c r="AB42" s="156"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
@@ -5599,7 +5600,7 @@
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
+      <c r="AL42" s="117"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
       <c r="AO42" s="17"/>
@@ -5609,7 +5610,7 @@
       <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
+      <c r="AV42" s="117"/>
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
       <c r="AY42" s="85"/>
@@ -5646,9 +5647,9 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="156"/>
-      <c r="AA43" s="158"/>
-      <c r="AB43" s="158"/>
+      <c r="Z43" s="154"/>
+      <c r="AA43" s="156"/>
+      <c r="AB43" s="156"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
@@ -5658,7 +5659,7 @@
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
+      <c r="AL43" s="117"/>
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
@@ -5668,7 +5669,7 @@
       <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
+      <c r="AV43" s="117"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
       <c r="AY43" s="85"/>
@@ -5705,9 +5706,9 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="156"/>
-      <c r="AA44" s="158"/>
-      <c r="AB44" s="158"/>
+      <c r="Z44" s="154"/>
+      <c r="AA44" s="156"/>
+      <c r="AB44" s="156"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
@@ -5717,7 +5718,7 @@
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
+      <c r="AL44" s="117"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
@@ -5727,7 +5728,7 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
+      <c r="AV44" s="117"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
       <c r="AY44" s="85"/>
@@ -5764,9 +5765,9 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
-      <c r="Z45" s="156"/>
-      <c r="AA45" s="158"/>
-      <c r="AB45" s="158"/>
+      <c r="Z45" s="154"/>
+      <c r="AA45" s="156"/>
+      <c r="AB45" s="156"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
@@ -5776,7 +5777,7 @@
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
+      <c r="AL45" s="117"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
@@ -5786,7 +5787,7 @@
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
+      <c r="AV45" s="117"/>
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
       <c r="AY45" s="85"/>
@@ -5823,9 +5824,9 @@
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="156"/>
-      <c r="AA46" s="158"/>
-      <c r="AB46" s="158"/>
+      <c r="Z46" s="154"/>
+      <c r="AA46" s="156"/>
+      <c r="AB46" s="156"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17"/>
@@ -5835,7 +5836,7 @@
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
+      <c r="AL46" s="117"/>
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
       <c r="AO46" s="17"/>
@@ -5845,7 +5846,7 @@
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
+      <c r="AV46" s="117"/>
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
       <c r="AY46" s="85"/>
@@ -5882,9 +5883,9 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="156"/>
-      <c r="AA47" s="158"/>
-      <c r="AB47" s="158"/>
+      <c r="Z47" s="154"/>
+      <c r="AA47" s="156"/>
+      <c r="AB47" s="156"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
@@ -5894,7 +5895,7 @@
       <c r="AI47" s="17"/>
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
+      <c r="AL47" s="117"/>
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
@@ -5904,7 +5905,7 @@
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
       <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
+      <c r="AV47" s="117"/>
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
       <c r="AY47" s="85"/>
@@ -5941,9 +5942,9 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
-      <c r="Z48" s="156"/>
-      <c r="AA48" s="158"/>
-      <c r="AB48" s="158"/>
+      <c r="Z48" s="154"/>
+      <c r="AA48" s="156"/>
+      <c r="AB48" s="156"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="17"/>
@@ -5953,7 +5954,7 @@
       <c r="AI48" s="17"/>
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
+      <c r="AL48" s="117"/>
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
       <c r="AO48" s="17"/>
@@ -5963,7 +5964,7 @@
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
+      <c r="AV48" s="117"/>
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
       <c r="AY48" s="85"/>
@@ -6000,9 +6001,9 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
-      <c r="Z49" s="156"/>
-      <c r="AA49" s="158"/>
-      <c r="AB49" s="158"/>
+      <c r="Z49" s="154"/>
+      <c r="AA49" s="156"/>
+      <c r="AB49" s="156"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="17"/>
@@ -6012,7 +6013,7 @@
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
+      <c r="AL49" s="117"/>
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
@@ -6022,7 +6023,7 @@
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
+      <c r="AV49" s="117"/>
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
       <c r="AY49" s="85"/>
@@ -6059,9 +6060,9 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
-      <c r="Z50" s="156"/>
-      <c r="AA50" s="158"/>
-      <c r="AB50" s="158"/>
+      <c r="Z50" s="154"/>
+      <c r="AA50" s="156"/>
+      <c r="AB50" s="156"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
@@ -6071,7 +6072,7 @@
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
+      <c r="AL50" s="117"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
       <c r="AO50" s="17"/>
@@ -6081,7 +6082,7 @@
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
+      <c r="AV50" s="117"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
       <c r="AY50" s="85"/>
@@ -6118,9 +6119,9 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
-      <c r="Z51" s="156"/>
-      <c r="AA51" s="158"/>
-      <c r="AB51" s="158"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="156"/>
+      <c r="AB51" s="156"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
@@ -6130,7 +6131,7 @@
       <c r="AI51" s="17"/>
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
+      <c r="AL51" s="117"/>
       <c r="AM51" s="17"/>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
@@ -6140,7 +6141,7 @@
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
+      <c r="AV51" s="117"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
       <c r="AY51" s="85"/>
@@ -6177,9 +6178,9 @@
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
-      <c r="Z52" s="156"/>
-      <c r="AA52" s="158"/>
-      <c r="AB52" s="158"/>
+      <c r="Z52" s="154"/>
+      <c r="AA52" s="156"/>
+      <c r="AB52" s="156"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
@@ -6189,7 +6190,7 @@
       <c r="AI52" s="17"/>
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
+      <c r="AL52" s="117"/>
       <c r="AM52" s="17"/>
       <c r="AN52" s="17"/>
       <c r="AO52" s="17"/>
@@ -6199,7 +6200,7 @@
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
       <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
+      <c r="AV52" s="117"/>
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
       <c r="AY52" s="85"/>
@@ -6236,9 +6237,9 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
-      <c r="Z53" s="156"/>
-      <c r="AA53" s="158"/>
-      <c r="AB53" s="158"/>
+      <c r="Z53" s="154"/>
+      <c r="AA53" s="156"/>
+      <c r="AB53" s="156"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
@@ -6248,7 +6249,7 @@
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
+      <c r="AL53" s="117"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
@@ -6258,7 +6259,7 @@
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
       <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
+      <c r="AV53" s="117"/>
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
       <c r="AY53" s="85"/>
@@ -6295,9 +6296,9 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="156"/>
-      <c r="AA54" s="158"/>
-      <c r="AB54" s="158"/>
+      <c r="Z54" s="154"/>
+      <c r="AA54" s="156"/>
+      <c r="AB54" s="156"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
@@ -6307,7 +6308,7 @@
       <c r="AI54" s="17"/>
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
+      <c r="AL54" s="117"/>
       <c r="AM54" s="17"/>
       <c r="AN54" s="17"/>
       <c r="AO54" s="17"/>
@@ -6317,7 +6318,7 @@
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
       <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
+      <c r="AV54" s="117"/>
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
       <c r="AY54" s="85"/>
@@ -6354,9 +6355,9 @@
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
-      <c r="Z55" s="156"/>
-      <c r="AA55" s="158"/>
-      <c r="AB55" s="158"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="156"/>
+      <c r="AB55" s="156"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="17"/>
@@ -6366,7 +6367,7 @@
       <c r="AI55" s="17"/>
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
+      <c r="AL55" s="117"/>
       <c r="AM55" s="17"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
@@ -6376,7 +6377,7 @@
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
       <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
+      <c r="AV55" s="117"/>
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
       <c r="AY55" s="85"/>
@@ -6413,9 +6414,9 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="156"/>
-      <c r="AA56" s="158"/>
-      <c r="AB56" s="158"/>
+      <c r="Z56" s="154"/>
+      <c r="AA56" s="156"/>
+      <c r="AB56" s="156"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="17"/>
@@ -6425,7 +6426,7 @@
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
+      <c r="AL56" s="117"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
       <c r="AO56" s="17"/>
@@ -6435,7 +6436,7 @@
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
       <c r="AU56" s="17"/>
-      <c r="AV56" s="17"/>
+      <c r="AV56" s="117"/>
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
       <c r="AY56" s="85"/>
@@ -6472,9 +6473,9 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
-      <c r="Z57" s="156"/>
-      <c r="AA57" s="158"/>
-      <c r="AB57" s="158"/>
+      <c r="Z57" s="154"/>
+      <c r="AA57" s="156"/>
+      <c r="AB57" s="156"/>
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
@@ -6484,7 +6485,7 @@
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
-      <c r="AL57" s="17"/>
+      <c r="AL57" s="117"/>
       <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
@@ -6494,7 +6495,7 @@
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
       <c r="AU57" s="17"/>
-      <c r="AV57" s="17"/>
+      <c r="AV57" s="117"/>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
       <c r="AY57" s="85"/>
@@ -6531,9 +6532,9 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
-      <c r="Z58" s="156"/>
-      <c r="AA58" s="158"/>
-      <c r="AB58" s="158"/>
+      <c r="Z58" s="154"/>
+      <c r="AA58" s="156"/>
+      <c r="AB58" s="156"/>
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
@@ -6543,7 +6544,7 @@
       <c r="AI58" s="17"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
+      <c r="AL58" s="117"/>
       <c r="AM58" s="17"/>
       <c r="AN58" s="17"/>
       <c r="AO58" s="17"/>
@@ -6553,7 +6554,7 @@
       <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
       <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
+      <c r="AV58" s="117"/>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
       <c r="AY58" s="85"/>
@@ -6590,9 +6591,9 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
-      <c r="Z59" s="156"/>
-      <c r="AA59" s="158"/>
-      <c r="AB59" s="158"/>
+      <c r="Z59" s="154"/>
+      <c r="AA59" s="156"/>
+      <c r="AB59" s="156"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -6602,7 +6603,7 @@
       <c r="AI59" s="17"/>
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
+      <c r="AL59" s="117"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
@@ -6612,7 +6613,7 @@
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
       <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
+      <c r="AV59" s="117"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
       <c r="AY59" s="85"/>
@@ -6649,9 +6650,9 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
-      <c r="Z60" s="156"/>
-      <c r="AA60" s="158"/>
-      <c r="AB60" s="158"/>
+      <c r="Z60" s="154"/>
+      <c r="AA60" s="156"/>
+      <c r="AB60" s="156"/>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
@@ -6661,7 +6662,7 @@
       <c r="AI60" s="17"/>
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
+      <c r="AL60" s="117"/>
       <c r="AM60" s="17"/>
       <c r="AN60" s="17"/>
       <c r="AO60" s="17"/>
@@ -6671,7 +6672,7 @@
       <c r="AS60" s="17"/>
       <c r="AT60" s="17"/>
       <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
+      <c r="AV60" s="117"/>
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
       <c r="AY60" s="85"/>
@@ -6708,9 +6709,9 @@
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
-      <c r="Z61" s="156"/>
-      <c r="AA61" s="158"/>
-      <c r="AB61" s="158"/>
+      <c r="Z61" s="154"/>
+      <c r="AA61" s="156"/>
+      <c r="AB61" s="156"/>
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="17"/>
@@ -6720,7 +6721,7 @@
       <c r="AI61" s="17"/>
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
-      <c r="AL61" s="17"/>
+      <c r="AL61" s="117"/>
       <c r="AM61" s="17"/>
       <c r="AN61" s="17"/>
       <c r="AO61" s="17"/>
@@ -6730,7 +6731,7 @@
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="17"/>
+      <c r="AV61" s="117"/>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
       <c r="AY61" s="85"/>
@@ -6767,9 +6768,9 @@
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
-      <c r="Z62" s="156"/>
-      <c r="AA62" s="158"/>
-      <c r="AB62" s="158"/>
+      <c r="Z62" s="154"/>
+      <c r="AA62" s="156"/>
+      <c r="AB62" s="156"/>
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
@@ -6779,7 +6780,7 @@
       <c r="AI62" s="17"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
-      <c r="AL62" s="17"/>
+      <c r="AL62" s="117"/>
       <c r="AM62" s="17"/>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
@@ -6789,7 +6790,7 @@
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
       <c r="AU62" s="17"/>
-      <c r="AV62" s="17"/>
+      <c r="AV62" s="117"/>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
       <c r="AY62" s="85"/>
@@ -6826,9 +6827,9 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
-      <c r="Z63" s="156"/>
-      <c r="AA63" s="158"/>
-      <c r="AB63" s="158"/>
+      <c r="Z63" s="154"/>
+      <c r="AA63" s="156"/>
+      <c r="AB63" s="156"/>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
       <c r="AE63" s="17"/>
@@ -6838,7 +6839,7 @@
       <c r="AI63" s="17"/>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="17"/>
+      <c r="AL63" s="117"/>
       <c r="AM63" s="17"/>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
@@ -6848,7 +6849,7 @@
       <c r="AS63" s="17"/>
       <c r="AT63" s="17"/>
       <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
+      <c r="AV63" s="117"/>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
       <c r="AY63" s="85"/>
@@ -6885,9 +6886,9 @@
       <c r="W64" s="17"/>
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
-      <c r="Z64" s="156"/>
-      <c r="AA64" s="158"/>
-      <c r="AB64" s="158"/>
+      <c r="Z64" s="154"/>
+      <c r="AA64" s="156"/>
+      <c r="AB64" s="156"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
@@ -6897,7 +6898,7 @@
       <c r="AI64" s="17"/>
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
+      <c r="AL64" s="117"/>
       <c r="AM64" s="17"/>
       <c r="AN64" s="17"/>
       <c r="AO64" s="17"/>
@@ -6907,7 +6908,7 @@
       <c r="AS64" s="17"/>
       <c r="AT64" s="17"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
+      <c r="AV64" s="117"/>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
       <c r="AY64" s="85"/>
@@ -6944,9 +6945,9 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
-      <c r="Z65" s="156"/>
-      <c r="AA65" s="158"/>
-      <c r="AB65" s="158"/>
+      <c r="Z65" s="154"/>
+      <c r="AA65" s="156"/>
+      <c r="AB65" s="156"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
@@ -6956,7 +6957,7 @@
       <c r="AI65" s="17"/>
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
+      <c r="AL65" s="117"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
       <c r="AO65" s="17"/>
@@ -6966,7 +6967,7 @@
       <c r="AS65" s="17"/>
       <c r="AT65" s="17"/>
       <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
+      <c r="AV65" s="117"/>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
       <c r="AY65" s="85"/>
@@ -7003,9 +7004,9 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
-      <c r="Z66" s="156"/>
-      <c r="AA66" s="158"/>
-      <c r="AB66" s="158"/>
+      <c r="Z66" s="154"/>
+      <c r="AA66" s="156"/>
+      <c r="AB66" s="156"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
@@ -7015,7 +7016,7 @@
       <c r="AI66" s="17"/>
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
-      <c r="AL66" s="17"/>
+      <c r="AL66" s="117"/>
       <c r="AM66" s="17"/>
       <c r="AN66" s="17"/>
       <c r="AO66" s="17"/>
@@ -7025,7 +7026,7 @@
       <c r="AS66" s="17"/>
       <c r="AT66" s="17"/>
       <c r="AU66" s="17"/>
-      <c r="AV66" s="17"/>
+      <c r="AV66" s="117"/>
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
       <c r="AY66" s="85"/>
@@ -7062,9 +7063,9 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
-      <c r="Z67" s="156"/>
-      <c r="AA67" s="158"/>
-      <c r="AB67" s="158"/>
+      <c r="Z67" s="154"/>
+      <c r="AA67" s="156"/>
+      <c r="AB67" s="156"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
@@ -7074,7 +7075,7 @@
       <c r="AI67" s="17"/>
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
+      <c r="AL67" s="117"/>
       <c r="AM67" s="17"/>
       <c r="AN67" s="17"/>
       <c r="AO67" s="17"/>
@@ -7084,7 +7085,7 @@
       <c r="AS67" s="17"/>
       <c r="AT67" s="17"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
+      <c r="AV67" s="117"/>
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
       <c r="AY67" s="85"/>
@@ -7121,9 +7122,9 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
-      <c r="Z68" s="156"/>
-      <c r="AA68" s="158"/>
-      <c r="AB68" s="158"/>
+      <c r="Z68" s="154"/>
+      <c r="AA68" s="156"/>
+      <c r="AB68" s="156"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
@@ -7133,7 +7134,7 @@
       <c r="AI68" s="17"/>
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
-      <c r="AL68" s="17"/>
+      <c r="AL68" s="117"/>
       <c r="AM68" s="17"/>
       <c r="AN68" s="17"/>
       <c r="AO68" s="17"/>
@@ -7143,7 +7144,7 @@
       <c r="AS68" s="17"/>
       <c r="AT68" s="17"/>
       <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
+      <c r="AV68" s="117"/>
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
       <c r="AY68" s="85"/>
@@ -7180,9 +7181,9 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
-      <c r="Z69" s="156"/>
-      <c r="AA69" s="158"/>
-      <c r="AB69" s="158"/>
+      <c r="Z69" s="154"/>
+      <c r="AA69" s="156"/>
+      <c r="AB69" s="156"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
@@ -7192,7 +7193,7 @@
       <c r="AI69" s="17"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
-      <c r="AL69" s="17"/>
+      <c r="AL69" s="117"/>
       <c r="AM69" s="17"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
@@ -7202,7 +7203,7 @@
       <c r="AS69" s="17"/>
       <c r="AT69" s="17"/>
       <c r="AU69" s="17"/>
-      <c r="AV69" s="17"/>
+      <c r="AV69" s="117"/>
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
       <c r="AY69" s="85"/>
@@ -7239,9 +7240,9 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
-      <c r="Z70" s="156"/>
-      <c r="AA70" s="158"/>
-      <c r="AB70" s="158"/>
+      <c r="Z70" s="154"/>
+      <c r="AA70" s="156"/>
+      <c r="AB70" s="156"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="17"/>
@@ -7251,7 +7252,7 @@
       <c r="AI70" s="17"/>
       <c r="AJ70" s="17"/>
       <c r="AK70" s="17"/>
-      <c r="AL70" s="17"/>
+      <c r="AL70" s="117"/>
       <c r="AM70" s="17"/>
       <c r="AN70" s="17"/>
       <c r="AO70" s="17"/>
@@ -7261,7 +7262,7 @@
       <c r="AS70" s="17"/>
       <c r="AT70" s="17"/>
       <c r="AU70" s="17"/>
-      <c r="AV70" s="17"/>
+      <c r="AV70" s="117"/>
       <c r="AW70" s="17"/>
       <c r="AX70" s="17"/>
       <c r="AY70" s="85"/>
@@ -7515,54 +7516,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="180" t="s">
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="180" t="s">
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="180" t="s">
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="181" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="181" t="s">
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="180" t="s">
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
-      <c r="AC2" s="180" t="s">
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="182"/>
-      <c r="AH2" s="183" t="s">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="184" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
@@ -8168,7 +8169,7 @@
       <c r="AJ7" s="53"/>
     </row>
     <row r="8" spans="1:36" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="136" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="39">
@@ -9432,16 +9433,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:FC2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -9515,10 +9516,10 @@
       <c r="D2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="150" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="5">
@@ -10134,10 +10135,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="137"/>
+      <c r="A3" s="135"/>
       <c r="B3"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="153"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="151"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -10232,10 +10233,10 @@
       <c r="CT3"/>
     </row>
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="137"/>
+      <c r="A4" s="135"/>
       <c r="B4"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="153"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="151"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -10330,10 +10331,10 @@
       <c r="CT4"/>
     </row>
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="137"/>
+      <c r="A5" s="135"/>
       <c r="B5"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="153"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="151"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -10428,10 +10429,10 @@
       <c r="CT5"/>
     </row>
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137"/>
+      <c r="A6" s="135"/>
       <c r="B6"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="153"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="151"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -10526,10 +10527,10 @@
       <c r="CT6"/>
     </row>
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="137"/>
+      <c r="A7" s="135"/>
       <c r="B7"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="153"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="151"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -10624,10 +10625,10 @@
       <c r="CT7"/>
     </row>
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="137"/>
+      <c r="A8" s="135"/>
       <c r="B8"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="153"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="151"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -10722,10 +10723,10 @@
       <c r="CT8"/>
     </row>
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="137"/>
+      <c r="A9" s="135"/>
       <c r="B9"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="153"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="151"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -10820,10 +10821,10 @@
       <c r="CT9"/>
     </row>
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="137"/>
+      <c r="A10" s="135"/>
       <c r="B10"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="153"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="151"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -10918,10 +10919,10 @@
       <c r="CT10"/>
     </row>
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="137"/>
+      <c r="A11" s="135"/>
       <c r="B11"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="153"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="151"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -11016,10 +11017,10 @@
       <c r="CT11"/>
     </row>
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
+      <c r="A12" s="135"/>
       <c r="B12"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="153"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="151"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -11114,10 +11115,10 @@
       <c r="CT12"/>
     </row>
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="137"/>
+      <c r="A13" s="135"/>
       <c r="B13"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="153"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="151"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -11212,10 +11213,10 @@
       <c r="CT13"/>
     </row>
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
+      <c r="A14" s="135"/>
       <c r="B14"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="153"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="151"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -11310,10 +11311,10 @@
       <c r="CT14"/>
     </row>
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="137"/>
+      <c r="A15" s="135"/>
       <c r="B15"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="153"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="151"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -11410,61 +11411,61 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="150"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="150"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="148"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="150"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="150"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="150"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="150"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="150"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="148"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="150"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="148"/>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
@@ -12712,7 +12713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -12721,7 +12722,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -12811,7 +12812,7 @@
       <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="150" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="5">
@@ -13430,86 +13431,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="153"/>
+      <c r="F3" s="151"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="153"/>
+      <c r="F4" s="151"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="153"/>
+      <c r="F5" s="151"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="153"/>
+      <c r="F6" s="151"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="151"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="153"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="153"/>
+      <c r="F9" s="151"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="153"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="153"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="153"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="153"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="153"/>
+      <c r="F14" s="151"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="153"/>
+      <c r="F15" s="151"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -13606,8 +13607,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -13704,8 +13705,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="150"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="148"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -36549,7 +36550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -36558,7 +36559,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -36614,8 +36615,8 @@
       <c r="C1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="149" t="s">
+      <c r="F1" s="149"/>
+      <c r="G1" s="147" t="s">
         <v>75</v>
       </c>
     </row>
@@ -36635,7 +36636,7 @@
       <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="150" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="5">
@@ -37253,7 +37254,7 @@
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="F3" s="153"/>
+      <c r="F3" s="151"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -37350,7 +37351,7 @@
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="F4" s="153"/>
+      <c r="F4" s="151"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -37447,7 +37448,7 @@
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="F5" s="153"/>
+      <c r="F5" s="151"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -37544,7 +37545,7 @@
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="F6" s="153"/>
+      <c r="F6" s="151"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -37641,7 +37642,7 @@
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="151"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -37738,7 +37739,7 @@
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="153"/>
+      <c r="F8" s="151"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -37835,7 +37836,7 @@
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="F9" s="153"/>
+      <c r="F9" s="151"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -37932,7 +37933,7 @@
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="F10" s="153"/>
+      <c r="F10" s="151"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -38029,7 +38030,7 @@
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="F11" s="153"/>
+      <c r="F11" s="151"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -38102,7 +38103,7 @@
       <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
-      <c r="CA11" s="139"/>
+      <c r="CA11" s="137"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -38126,7 +38127,7 @@
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="F12" s="153"/>
+      <c r="F12" s="151"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -38223,7 +38224,7 @@
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="F13" s="153"/>
+      <c r="F13" s="151"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -38320,7 +38321,7 @@
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="F14" s="153"/>
+      <c r="F14" s="151"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -38417,7 +38418,7 @@
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="F15" s="153"/>
+      <c r="F15" s="151"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -38514,14 +38515,14 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
@@ -39703,7 +39704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -39713,7 +39714,7 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="40.7265625" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -39863,7 +39864,7 @@
       <c r="E2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="150" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="5">
@@ -40482,86 +40483,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="153"/>
+      <c r="F3" s="151"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="153"/>
+      <c r="F4" s="151"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="153"/>
+      <c r="F5" s="151"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="153"/>
+      <c r="F6" s="151"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="151"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="153"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="153"/>
+      <c r="F9" s="151"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="153"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="153"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="153"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="153"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="153"/>
+      <c r="F14" s="151"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="153"/>
+      <c r="F15" s="151"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -40658,8 +40659,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="150"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22605E-68F1-4FC3-97C4-4E95620CD9E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7FC8B-06D3-482E-9AB0-1B659F8C003C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="260" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -1908,7 +1908,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="119" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="142"/>
@@ -1952,23 +1952,23 @@
         <v/>
       </c>
       <c r="AJ4" s="121" t="str">
-        <f>IFERROR(AO4/J4*30,"n.a.")</f>
+        <f t="shared" ref="AJ4:AJ17" si="2">IFERROR(AO4/J4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK4" s="124" t="str">
-        <f>IFERROR(AP4/K4*30,"n.a.")</f>
+        <f t="shared" ref="AK4:AK17" si="3">IFERROR(AP4/K4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL4" s="121" t="str">
-        <f>IFERROR(AQ4/L4*30,"n.a.")</f>
+        <f t="shared" ref="AL4:AL17" si="4">IFERROR(AQ4/L4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM4" s="122" t="str">
-        <f t="shared" ref="AM4:AM16" si="2">IFERROR(-AL4+AI4,"n.a.")</f>
+        <f t="shared" ref="AM4:AM16" si="5">IFERROR(-AL4+AI4,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN4" s="143" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN17" si="6">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="119" t="e">
@@ -1992,23 +1992,23 @@
         <v/>
       </c>
       <c r="AT4" s="121" t="str">
-        <f>IFERROR(AY4/J4*30,"n.a.")</f>
+        <f t="shared" ref="AT4:AT17" si="7">IFERROR(AY4/J4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU4" s="121" t="str">
-        <f>IFERROR(AZ4/K4*30,"n.a.")</f>
+        <f t="shared" ref="AU4:AU17" si="8">IFERROR(AZ4/K4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV4" s="121" t="str">
-        <f>IFERROR(BA4/L4*30,"n.a.")</f>
+        <f t="shared" ref="AV4:AV17" si="9">IFERROR(BA4/L4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW4" s="122" t="str">
-        <f t="shared" ref="AW4:AW14" si="3">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW14" si="10">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="143" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX17" si="11">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="119" t="e">
@@ -2063,7 +2063,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="119" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="142"/>
@@ -2079,7 +2079,7 @@
       <c r="AA5" s="142"/>
       <c r="AB5" s="142"/>
       <c r="AC5" s="120" t="str">
-        <f t="shared" ref="AC5:AC16" si="4">IFERROR(AI5-AS5,"")</f>
+        <f t="shared" ref="AC5:AC16" si="12">IFERROR(AI5-AS5,"")</f>
         <v/>
       </c>
       <c r="AD5" s="127" t="str">
@@ -2099,7 +2099,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="172" t="str">
-        <f t="shared" ref="AH5:AH17" si="5">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH17" si="13">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="177" t="str">
@@ -2107,23 +2107,23 @@
         <v/>
       </c>
       <c r="AJ5" s="121" t="str">
-        <f>IFERROR(AO5/J5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK5" s="124" t="str">
-        <f>IFERROR(AP5/K5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL5" s="121" t="str">
-        <f>IFERROR(AQ5/L5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM5" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK5" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL5" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM5" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN5" s="143" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="131" t="e">
@@ -2147,23 +2147,23 @@
         <v/>
       </c>
       <c r="AT5" s="121" t="str">
-        <f>IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="121" t="str">
-        <f>IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="121" t="str">
-        <f>IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="143" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="131" t="e">
@@ -2218,7 +2218,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="119" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="142"/>
@@ -2234,7 +2234,7 @@
       <c r="AA6" s="142"/>
       <c r="AB6" s="142"/>
       <c r="AC6" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD6" s="127" t="str">
@@ -2254,7 +2254,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="177" t="str">
@@ -2262,23 +2262,23 @@
         <v/>
       </c>
       <c r="AJ6" s="121" t="str">
-        <f>IFERROR(AO6/J6*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK6" s="124" t="str">
-        <f>IFERROR(AP6/K6*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL6" s="121" t="str">
-        <f>IFERROR(AQ6/L6*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM6" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK6" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL6" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM6" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN6" s="143" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="131" t="e">
@@ -2302,23 +2302,23 @@
         <v/>
       </c>
       <c r="AT6" s="121" t="str">
-        <f>IFERROR(AY6/J6*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU6" s="121" t="str">
-        <f>IFERROR(AZ6/K6*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV6" s="121" t="str">
-        <f>IFERROR(BA6/L6*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW6" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="143" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="131" t="e">
@@ -2373,7 +2373,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="119" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="142"/>
@@ -2389,7 +2389,7 @@
       <c r="AA7" s="142"/>
       <c r="AB7" s="142"/>
       <c r="AC7" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD7" s="127" t="str">
@@ -2409,7 +2409,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="177" t="str">
@@ -2417,23 +2417,23 @@
         <v/>
       </c>
       <c r="AJ7" s="121" t="str">
-        <f>IFERROR(AO7/J7*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK7" s="124" t="str">
-        <f>IFERROR(AP7/K7*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL7" s="121" t="str">
-        <f>IFERROR(AQ7/L7*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM7" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK7" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL7" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM7" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN7" s="143" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="131" t="e">
@@ -2457,23 +2457,23 @@
         <v/>
       </c>
       <c r="AT7" s="121" t="str">
-        <f>IFERROR(AY7/J7*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU7" s="121" t="str">
-        <f>IFERROR(AZ7/K7*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV7" s="121" t="str">
-        <f>IFERROR(BA7/L7*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW7" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="143" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="131" t="e">
@@ -2528,7 +2528,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="119" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="142"/>
@@ -2544,7 +2544,7 @@
       <c r="AA8" s="142"/>
       <c r="AB8" s="142"/>
       <c r="AC8" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD8" s="127" t="str">
@@ -2564,7 +2564,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="177" t="str">
@@ -2572,23 +2572,23 @@
         <v/>
       </c>
       <c r="AJ8" s="121" t="str">
-        <f>IFERROR(AO8/J8*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK8" s="124" t="str">
-        <f>IFERROR(AP8/K8*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL8" s="121" t="str">
-        <f>IFERROR(AQ8/L8*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM8" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK8" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL8" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM8" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN8" s="143" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="131" t="e">
@@ -2612,23 +2612,23 @@
         <v/>
       </c>
       <c r="AT8" s="121" t="str">
-        <f>IFERROR(AY8/J8*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU8" s="121" t="str">
-        <f>IFERROR(AZ8/K8*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV8" s="121" t="str">
-        <f>IFERROR(BA8/L8*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW8" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="143" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="131" t="e">
@@ -2683,7 +2683,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="119" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="142"/>
@@ -2699,7 +2699,7 @@
       <c r="AA9" s="142"/>
       <c r="AB9" s="142"/>
       <c r="AC9" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD9" s="127" t="str">
@@ -2719,7 +2719,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="177" t="str">
@@ -2727,23 +2727,23 @@
         <v/>
       </c>
       <c r="AJ9" s="121" t="str">
-        <f>IFERROR(AO9/J9*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK9" s="124" t="str">
-        <f>IFERROR(AP9/K9*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL9" s="121" t="str">
-        <f>IFERROR(AQ9/L9*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM9" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK9" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL9" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM9" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN9" s="143" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="131" t="e">
@@ -2767,23 +2767,23 @@
         <v/>
       </c>
       <c r="AT9" s="121" t="str">
-        <f>IFERROR(AY9/J9*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU9" s="121" t="str">
-        <f>IFERROR(AZ9/K9*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV9" s="121" t="str">
-        <f>IFERROR(BA9/L9*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW9" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="143" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="131" t="e">
@@ -2838,7 +2838,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="119" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="142"/>
@@ -2854,7 +2854,7 @@
       <c r="AA10" s="142"/>
       <c r="AB10" s="142"/>
       <c r="AC10" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD10" s="127" t="str">
@@ -2874,7 +2874,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="177" t="str">
@@ -2882,23 +2882,23 @@
         <v/>
       </c>
       <c r="AJ10" s="121" t="str">
-        <f>IFERROR(AO10/J10*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK10" s="124" t="str">
-        <f>IFERROR(AP10/K10*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL10" s="121" t="str">
-        <f>IFERROR(AQ10/L10*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM10" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK10" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL10" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM10" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN10" s="143" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="131" t="e">
@@ -2922,23 +2922,23 @@
         <v/>
       </c>
       <c r="AT10" s="121" t="str">
-        <f>IFERROR(AY10/J10*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU10" s="121" t="str">
-        <f>IFERROR(AZ10/K10*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV10" s="121" t="str">
-        <f>IFERROR(BA10/L10*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW10" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="143" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="131" t="e">
@@ -2993,7 +2993,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="119" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="142"/>
@@ -3009,7 +3009,7 @@
       <c r="AA11" s="142"/>
       <c r="AB11" s="142"/>
       <c r="AC11" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD11" s="127" t="str">
@@ -3029,7 +3029,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="177" t="str">
@@ -3037,23 +3037,23 @@
         <v/>
       </c>
       <c r="AJ11" s="121" t="str">
-        <f>IFERROR(AO11/J11*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK11" s="124" t="str">
-        <f>IFERROR(AP11/K11*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL11" s="121" t="str">
-        <f>IFERROR(AQ11/L11*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM11" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK11" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL11" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM11" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN11" s="143" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="131" t="e">
@@ -3077,23 +3077,23 @@
         <v/>
       </c>
       <c r="AT11" s="121" t="str">
-        <f>IFERROR(AY11/J11*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU11" s="121" t="str">
-        <f>IFERROR(AZ11/K11*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV11" s="121" t="str">
-        <f>IFERROR(BA11/L11*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW11" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="143" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="131" t="e">
@@ -3148,7 +3148,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="119" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="142"/>
@@ -3164,7 +3164,7 @@
       <c r="AA12" s="142"/>
       <c r="AB12" s="142"/>
       <c r="AC12" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD12" s="127" t="str">
@@ -3184,7 +3184,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="177" t="str">
@@ -3192,23 +3192,23 @@
         <v/>
       </c>
       <c r="AJ12" s="121" t="str">
-        <f>IFERROR(AO12/J12*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK12" s="124" t="str">
-        <f>IFERROR(AP12/K12*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL12" s="121" t="str">
-        <f>IFERROR(AQ12/L12*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM12" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK12" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL12" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM12" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN12" s="143" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="131" t="e">
@@ -3232,23 +3232,23 @@
         <v/>
       </c>
       <c r="AT12" s="121" t="str">
-        <f>IFERROR(AY12/J12*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU12" s="121" t="str">
-        <f>IFERROR(AZ12/K12*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV12" s="121" t="str">
-        <f>IFERROR(BA12/L12*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW12" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="143" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="131" t="e">
@@ -3303,7 +3303,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="119" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="142"/>
@@ -3319,7 +3319,7 @@
       <c r="AA13" s="142"/>
       <c r="AB13" s="142"/>
       <c r="AC13" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD13" s="127" t="str">
@@ -3339,7 +3339,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="177" t="str">
@@ -3347,23 +3347,23 @@
         <v/>
       </c>
       <c r="AJ13" s="121" t="str">
-        <f>IFERROR(AO13/J13*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK13" s="124" t="str">
-        <f>IFERROR(AP13/K13*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL13" s="121" t="str">
-        <f>IFERROR(AQ13/L13*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM13" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK13" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL13" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM13" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN13" s="143" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="131" t="e">
@@ -3387,23 +3387,23 @@
         <v/>
       </c>
       <c r="AT13" s="121" t="str">
-        <f>IFERROR(AY13/J13*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU13" s="121" t="str">
-        <f>IFERROR(AZ13/K13*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV13" s="121" t="str">
-        <f>IFERROR(BA13/L13*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW13" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="143" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="131" t="e">
@@ -3458,7 +3458,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="119" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="142"/>
@@ -3474,7 +3474,7 @@
       <c r="AA14" s="142"/>
       <c r="AB14" s="142"/>
       <c r="AC14" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD14" s="127" t="str">
@@ -3494,7 +3494,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="177" t="str">
@@ -3502,23 +3502,23 @@
         <v/>
       </c>
       <c r="AJ14" s="121" t="str">
-        <f>IFERROR(AO14/J14*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK14" s="124" t="str">
-        <f>IFERROR(AP14/K14*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL14" s="121" t="str">
-        <f>IFERROR(AQ14/L14*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM14" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK14" s="124" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL14" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM14" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN14" s="143" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="131" t="e">
@@ -3542,23 +3542,23 @@
         <v/>
       </c>
       <c r="AT14" s="121" t="str">
-        <f>IFERROR(AY14/J14*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU14" s="121" t="str">
-        <f>IFERROR(AZ14/K14*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV14" s="121" t="str">
-        <f>IFERROR(BA14/L14*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW14" s="128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="143" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="131" t="e">
@@ -3613,7 +3613,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="119" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="142"/>
@@ -3629,27 +3629,27 @@
       <c r="AA15" s="142"/>
       <c r="AB15" s="142"/>
       <c r="AC15" s="120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD15" s="127" t="str">
-        <f t="shared" ref="AD15" si="6">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
+        <f t="shared" ref="AD15" si="14">IFERROR(IF(AJ15="n.a.", -AT15, IF(AT15="n.a.", AJ15, AJ15-AT15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AE15" s="127" t="str">
-        <f t="shared" ref="AE15" si="7">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
+        <f t="shared" ref="AE15" si="15">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AF15" s="144" t="str">
-        <f t="shared" ref="AF15" si="8">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
+        <f t="shared" ref="AF15" si="16">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AG15" s="129" t="str">
-        <f t="shared" ref="AG15" si="9">IFERROR(AC15-AF15, "n.a.")</f>
+        <f t="shared" ref="AG15" si="17">IFERROR(AC15-AF15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AH15" s="172" t="str">
-        <f t="shared" ref="AH15" si="10">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
+        <f t="shared" ref="AH15" si="18">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="177" t="str">
@@ -3657,23 +3657,23 @@
         <v/>
       </c>
       <c r="AJ15" s="121" t="str">
-        <f>IFERROR(AO15/J15*30,"n.a.")</f>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
       <c r="AK15" s="124" t="str">
-        <f>IFERROR(AP15/K15*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AL15" s="121" t="str">
-        <f>IFERROR(AQ15/L15*30,"n.a.")</f>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AM15" s="128" t="str">
-        <f t="shared" ref="AM15" si="11">IFERROR(-AL15+AI15,"n.a.")</f>
+        <f t="shared" ref="AM15" si="19">IFERROR(-AL15+AI15,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN15" s="143" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="131" t="e">
@@ -3697,23 +3697,23 @@
         <v/>
       </c>
       <c r="AT15" s="121" t="str">
-        <f>IFERROR(AY15/J15*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU15" s="121" t="str">
-        <f>IFERROR(AZ15/K15*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV15" s="121" t="str">
-        <f>IFERROR(BA15/L15*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW15" s="128" t="str">
-        <f t="shared" ref="AW15:AW16" si="12">IFERROR(-AS15+AV15, "n.a.")</f>
+        <f t="shared" ref="AW15:AW16" si="20">IFERROR(-AS15+AV15, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="143" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="131" t="e">
@@ -3767,8 +3767,8 @@
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="131" t="e">
-        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+      <c r="P16" s="119" t="e">
+        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="164"/>
@@ -3784,7 +3784,7 @@
       <c r="AA16" s="164"/>
       <c r="AB16" s="164"/>
       <c r="AC16" s="126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD16" s="127" t="str">
@@ -3804,7 +3804,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH16" s="173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="177" t="str">
@@ -3812,23 +3812,23 @@
         <v/>
       </c>
       <c r="AJ16" s="127" t="str">
-        <f>IFERROR(AO16/J16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AK16" s="130" t="str">
-        <f>IFERROR(AP16/K16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AL16" s="127" t="str">
-        <f>IFERROR(AQ16/L16*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AM16" s="128" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
+      <c r="AK16" s="130" t="str">
+        <f t="shared" si="3"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="127" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AM16" s="128" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
       <c r="AN16" s="144" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="131" t="e">
@@ -3852,23 +3852,23 @@
         <v/>
       </c>
       <c r="AT16" s="127" t="str">
-        <f>IFERROR(AY16/J16*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU16" s="127" t="str">
-        <f>IFERROR(AZ16/K16*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV16" s="127" t="str">
-        <f>IFERROR(BA16/L16*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW16" s="128" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="144" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="131" t="e">
@@ -3910,31 +3910,31 @@
       <c r="H17" s="157"/>
       <c r="I17" s="156"/>
       <c r="J17" s="158" t="e">
-        <f t="shared" ref="J17:P17" si="13">SUM(J4:J16)</f>
+        <f t="shared" ref="J17:P17" si="21">SUM(J4:J16)</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="L17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="M17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="N17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="O17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="P17" s="158" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="158"/>
@@ -3964,25 +3964,25 @@
       </c>
       <c r="AG17" s="157"/>
       <c r="AH17" s="176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
       <c r="AI17" s="161"/>
       <c r="AJ17" s="162" t="str">
-        <f>IFERROR(AO17/J17*30,"n.a.")</f>
+        <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
       <c r="AK17" s="162" t="str">
-        <f>IFERROR(AP17/K17*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AL17" s="162" t="str">
-        <f>IFERROR(AQ17/L17*30,"n.a.")</f>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AM17" s="157"/>
       <c r="AN17" s="174" t="str">
-        <f>IFERROR(AR17/M17*30,"n.a.")</f>
+        <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
       <c r="AO17" s="158" t="e">
@@ -4003,20 +4003,20 @@
       </c>
       <c r="AS17" s="161"/>
       <c r="AT17" s="163" t="str">
-        <f>IFERROR(AY17/J17*30,"n.a.")</f>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AU17" s="163" t="str">
-        <f>IFERROR(AZ17/K17*30,"n.a.")</f>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AV17" s="162" t="str">
-        <f>IFERROR(BA17/L17*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AW17" s="157"/>
       <c r="AX17" s="157" t="str">
-        <f>IFERROR(BB17/M17*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AY17" s="158" t="e">

--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA7FC8B-06D3-482E-9AB0-1B659F8C003C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C4065-278C-4D19-9477-E500BB324819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1095,9 +1095,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1178,12 +1175,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1232,6 +1223,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1526,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A1:BD70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -1542,15 +1556,15 @@
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
     <col min="10" max="22" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="13.1796875" style="153" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="25" width="13.1796875" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="13.1796875" style="152" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="25" width="13.1796875" style="154" customWidth="1" outlineLevel="1"/>
     <col min="26" max="28" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
     <col min="29" max="33" width="13.1796875" style="18" customWidth="1"/>
     <col min="34" max="34" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="13.1796875" style="178" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.1796875" style="175" customWidth="1" collapsed="1"/>
     <col min="36" max="39" width="13.1796875" style="18" customWidth="1"/>
     <col min="40" max="44" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="45" max="45" width="13.1796875" style="178" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="13.1796875" style="175" customWidth="1" collapsed="1"/>
     <col min="46" max="47" width="13.1796875" style="18" customWidth="1"/>
     <col min="48" max="48" width="13.1796875" style="86" customWidth="1"/>
     <col min="49" max="49" width="13.1796875" style="18" customWidth="1"/>
@@ -1587,7 +1601,7 @@
       <c r="T1" s="104"/>
       <c r="U1" s="104"/>
       <c r="V1" s="104"/>
-      <c r="W1" s="140"/>
+      <c r="W1" s="139"/>
       <c r="X1" s="104"/>
       <c r="Y1" s="104"/>
       <c r="Z1" s="104"/>
@@ -1620,7 +1634,7 @@
       <c r="AY1" s="98"/>
       <c r="AZ1" s="98"/>
       <c r="BA1" s="98"/>
-      <c r="BB1" s="170"/>
+      <c r="BB1" s="167"/>
     </row>
     <row r="2" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -1660,11 +1674,11 @@
       </c>
       <c r="U2" s="107"/>
       <c r="V2" s="107"/>
-      <c r="W2" s="141" t="s">
+      <c r="W2" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
       <c r="Z2" s="107" t="s">
         <v>91</v>
       </c>
@@ -1834,10 +1848,10 @@
       <c r="AP3" s="102">
         <v>43739</v>
       </c>
-      <c r="AQ3" s="136">
+      <c r="AQ3" s="135">
         <v>43770</v>
       </c>
-      <c r="AR3" s="167" t="s">
+      <c r="AR3" s="164" t="s">
         <v>94</v>
       </c>
       <c r="AS3" s="96" t="s">
@@ -1849,13 +1863,13 @@
       <c r="AU3" s="102">
         <v>43739</v>
       </c>
-      <c r="AV3" s="136">
+      <c r="AV3" s="135">
         <v>43770</v>
       </c>
       <c r="AW3" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="AX3" s="168" t="s">
+      <c r="AX3" s="165" t="s">
         <v>94</v>
       </c>
       <c r="AY3" s="102">
@@ -1864,10 +1878,10 @@
       <c r="AZ3" s="102">
         <v>43739</v>
       </c>
-      <c r="BA3" s="169">
+      <c r="BA3" s="166">
         <v>43770</v>
       </c>
-      <c r="BB3" s="171" t="s">
+      <c r="BB3" s="168" t="s">
         <v>94</v>
       </c>
       <c r="BC3" s="2"/>
@@ -1875,14 +1889,14 @@
     </row>
     <row r="4" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="118"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
       <c r="J4" s="119" t="e">
         <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -1911,18 +1925,18 @@
         <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="149"/>
+      <c r="X4" s="149"/>
+      <c r="Y4" s="149"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
       <c r="AC4" s="120" t="str">
         <f>IFERROR(AI4-AS4,"")</f>
         <v/>
@@ -1935,7 +1949,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF4" s="143" t="str">
+      <c r="AF4" s="142" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -1943,11 +1957,11 @@
         <f t="shared" ref="AG4:AG16" si="1">IFERROR(AC4-AF4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AH4" s="172" t="str">
+      <c r="AH4" s="169" t="str">
         <f>IFERROR(IF(AN4="n.a.", -AX4, IF(AX4="n.a.", AN4, AN4-AX4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="177" t="str">
+      <c r="AI4" s="174" t="str">
         <f>IFERROR(VLOOKUP($B4,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -1967,7 +1981,7 @@
         <f t="shared" ref="AM4:AM16" si="5">IFERROR(-AL4+AI4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN4" s="143" t="str">
+      <c r="AN4" s="142" t="str">
         <f t="shared" ref="AN4:AN17" si="6">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2007,7 +2021,7 @@
         <f t="shared" ref="AW4:AW14" si="10">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX4" s="143" t="str">
+      <c r="AX4" s="142" t="str">
         <f t="shared" ref="AX4:AX17" si="11">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -2023,21 +2037,21 @@
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB4" s="131" t="e">
+      <c r="BB4" s="130" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="125"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
       <c r="J5" s="119" t="e">
         <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2066,18 +2080,18 @@
         <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="141"/>
       <c r="AC5" s="120" t="str">
         <f t="shared" ref="AC5:AC16" si="12">IFERROR(AI5-AS5,"")</f>
         <v/>
@@ -2090,7 +2104,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF5" s="144" t="str">
+      <c r="AF5" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2098,11 +2112,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH5" s="172" t="str">
+      <c r="AH5" s="169" t="str">
         <f t="shared" ref="AH5:AH17" si="13">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="177" t="str">
+      <c r="AI5" s="174" t="str">
         <f>IFERROR(VLOOKUP($B5,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2122,19 +2136,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="143" t="str">
+      <c r="AN5" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="131" t="e">
+      <c r="AO5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP5" s="131" t="e">
+      <c r="AP5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ5" s="131" t="e">
+      <c r="AQ5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2162,37 +2176,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="143" t="str">
+      <c r="AX5" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="131" t="e">
+      <c r="AY5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ5" s="131" t="e">
+      <c r="AZ5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA5" s="131" t="e">
+      <c r="BA5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB5" s="131" t="e">
+      <c r="BB5" s="130" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="125"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
       <c r="J6" s="119" t="e">
         <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2221,18 +2235,18 @@
         <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="142"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
       <c r="AC6" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2245,7 +2259,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF6" s="144" t="str">
+      <c r="AF6" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2253,11 +2267,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH6" s="172" t="str">
+      <c r="AH6" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="177" t="str">
+      <c r="AI6" s="174" t="str">
         <f>IFERROR(VLOOKUP($B6,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2277,19 +2291,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN6" s="143" t="str">
+      <c r="AN6" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="131" t="e">
+      <c r="AO6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP6" s="131" t="e">
+      <c r="AP6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ6" s="131" t="e">
+      <c r="AQ6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2317,37 +2331,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="143" t="str">
+      <c r="AX6" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="131" t="e">
+      <c r="AY6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ6" s="131" t="e">
+      <c r="AZ6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA6" s="131" t="e">
+      <c r="BA6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB6" s="131" t="e">
+      <c r="BB6" s="130" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="125"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
       <c r="J7" s="119" t="e">
         <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2376,18 +2390,18 @@
         <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
       <c r="AC7" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2400,7 +2414,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF7" s="144" t="str">
+      <c r="AF7" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2408,11 +2422,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH7" s="172" t="str">
+      <c r="AH7" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="177" t="str">
+      <c r="AI7" s="174" t="str">
         <f>IFERROR(VLOOKUP($B7,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2432,19 +2446,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN7" s="143" t="str">
+      <c r="AN7" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="131" t="e">
+      <c r="AO7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP7" s="131" t="e">
+      <c r="AP7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ7" s="131" t="e">
+      <c r="AQ7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2472,37 +2486,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="143" t="str">
+      <c r="AX7" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="131" t="e">
+      <c r="AY7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ7" s="131" t="e">
+      <c r="AZ7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA7" s="131" t="e">
+      <c r="BA7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB7" s="131" t="e">
+      <c r="BB7" s="130" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="125"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
       <c r="J8" s="119" t="e">
         <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2531,18 +2545,18 @@
         <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
       <c r="AC8" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2555,7 +2569,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF8" s="144" t="str">
+      <c r="AF8" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2563,11 +2577,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH8" s="172" t="str">
+      <c r="AH8" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="177" t="str">
+      <c r="AI8" s="174" t="str">
         <f>IFERROR(VLOOKUP($B8,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2587,19 +2601,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN8" s="143" t="str">
+      <c r="AN8" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="131" t="e">
+      <c r="AO8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP8" s="131" t="e">
+      <c r="AP8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ8" s="131" t="e">
+      <c r="AQ8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2627,37 +2641,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="143" t="str">
+      <c r="AX8" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="131" t="e">
+      <c r="AY8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ8" s="131" t="e">
+      <c r="AZ8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA8" s="131" t="e">
+      <c r="BA8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB8" s="131" t="e">
+      <c r="BB8" s="130" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="125"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
       <c r="J9" s="119" t="e">
         <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2686,18 +2700,18 @@
         <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="142"/>
-      <c r="AB9" s="142"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
       <c r="AC9" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2710,7 +2724,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF9" s="144" t="str">
+      <c r="AF9" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2718,11 +2732,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH9" s="172" t="str">
+      <c r="AH9" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="177" t="str">
+      <c r="AI9" s="174" t="str">
         <f>IFERROR(VLOOKUP($B9,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2742,19 +2756,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN9" s="143" t="str">
+      <c r="AN9" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="131" t="e">
+      <c r="AO9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP9" s="131" t="e">
+      <c r="AP9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ9" s="131" t="e">
+      <c r="AQ9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2782,37 +2796,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="143" t="str">
+      <c r="AX9" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="131" t="e">
+      <c r="AY9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ9" s="131" t="e">
+      <c r="AZ9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA9" s="131" t="e">
+      <c r="BA9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB9" s="131" t="e">
+      <c r="BB9" s="130" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="125"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="119" t="e">
         <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2841,18 +2855,18 @@
         <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="142"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
       <c r="AC10" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -2865,7 +2879,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF10" s="144" t="str">
+      <c r="AF10" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2873,11 +2887,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH10" s="172" t="str">
+      <c r="AH10" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="177" t="str">
+      <c r="AI10" s="174" t="str">
         <f>IFERROR(VLOOKUP($B10,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -2897,19 +2911,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN10" s="143" t="str">
+      <c r="AN10" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="131" t="e">
+      <c r="AO10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP10" s="131" t="e">
+      <c r="AP10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ10" s="131" t="e">
+      <c r="AQ10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2937,37 +2951,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="143" t="str">
+      <c r="AX10" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="131" t="e">
+      <c r="AY10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ10" s="131" t="e">
+      <c r="AZ10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA10" s="131" t="e">
+      <c r="BA10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB10" s="131" t="e">
+      <c r="BB10" s="130" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="125"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="119" t="e">
         <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2996,18 +3010,18 @@
         <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="150"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="142"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
       <c r="AC11" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3020,7 +3034,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF11" s="144" t="str">
+      <c r="AF11" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3028,11 +3042,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH11" s="172" t="str">
+      <c r="AH11" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="177" t="str">
+      <c r="AI11" s="174" t="str">
         <f>IFERROR(VLOOKUP($B11,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -3052,19 +3066,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN11" s="143" t="str">
+      <c r="AN11" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="131" t="e">
+      <c r="AO11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP11" s="131" t="e">
+      <c r="AP11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ11" s="131" t="e">
+      <c r="AQ11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3092,37 +3106,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="143" t="str">
+      <c r="AX11" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="131" t="e">
+      <c r="AY11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ11" s="131" t="e">
+      <c r="AZ11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA11" s="131" t="e">
+      <c r="BA11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB11" s="131" t="e">
+      <c r="BB11" s="130" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="125"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="119" t="e">
         <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3151,18 +3165,18 @@
         <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
-      <c r="T12" s="142"/>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="142"/>
-      <c r="AB12" s="142"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="141"/>
       <c r="AC12" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3175,7 +3189,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF12" s="144" t="str">
+      <c r="AF12" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3183,11 +3197,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH12" s="172" t="str">
+      <c r="AH12" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="177" t="str">
+      <c r="AI12" s="174" t="str">
         <f>IFERROR(VLOOKUP($B12,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -3207,19 +3221,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN12" s="143" t="str">
+      <c r="AN12" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="131" t="e">
+      <c r="AO12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP12" s="131" t="e">
+      <c r="AP12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ12" s="131" t="e">
+      <c r="AQ12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3247,37 +3261,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="143" t="str">
+      <c r="AX12" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="131" t="e">
+      <c r="AY12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ12" s="131" t="e">
+      <c r="AZ12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA12" s="131" t="e">
+      <c r="BA12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB12" s="131" t="e">
+      <c r="BB12" s="130" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="125"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="119" t="e">
         <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3306,18 +3320,18 @@
         <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="142"/>
-      <c r="S13" s="142"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="150"/>
-      <c r="X13" s="150"/>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="142"/>
-      <c r="AB13" s="142"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
       <c r="AC13" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3330,7 +3344,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF13" s="144" t="str">
+      <c r="AF13" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3338,11 +3352,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH13" s="172" t="str">
+      <c r="AH13" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="177" t="str">
+      <c r="AI13" s="174" t="str">
         <f>IFERROR(VLOOKUP($B13,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -3362,19 +3376,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN13" s="143" t="str">
+      <c r="AN13" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="131" t="e">
+      <c r="AO13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP13" s="131" t="e">
+      <c r="AP13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ13" s="131" t="e">
+      <c r="AQ13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3402,37 +3416,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="143" t="str">
+      <c r="AX13" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="131" t="e">
+      <c r="AY13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ13" s="131" t="e">
+      <c r="AZ13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA13" s="131" t="e">
+      <c r="BA13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB13" s="131" t="e">
+      <c r="BB13" s="130" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="125"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="119" t="e">
         <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3461,18 +3475,18 @@
         <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="142"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
       <c r="AC14" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3485,7 +3499,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF14" s="144" t="str">
+      <c r="AF14" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3493,11 +3507,11 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH14" s="172" t="str">
+      <c r="AH14" s="169" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="177" t="str">
+      <c r="AI14" s="174" t="str">
         <f>IFERROR(VLOOKUP($B14,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -3517,19 +3531,19 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN14" s="143" t="str">
+      <c r="AN14" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="131" t="e">
+      <c r="AO14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP14" s="131" t="e">
+      <c r="AP14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ14" s="131" t="e">
+      <c r="AQ14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3557,37 +3571,37 @@
         <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="143" t="str">
+      <c r="AX14" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="131" t="e">
+      <c r="AY14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ14" s="131" t="e">
+      <c r="AZ14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA14" s="131" t="e">
+      <c r="BA14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB14" s="131" t="e">
+      <c r="BB14" s="130" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:56" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="125"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
       <c r="J15" s="119" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3616,18 +3630,18 @@
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="150"/>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="141"/>
+      <c r="AB15" s="141"/>
       <c r="AC15" s="120" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -3640,7 +3654,7 @@
         <f t="shared" ref="AE15" si="15">IFERROR(IF(AK15="n.a.", -AU15, IF(AU15="n.a.", AK15, AK15-AU15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AF15" s="144" t="str">
+      <c r="AF15" s="143" t="str">
         <f t="shared" ref="AF15" si="16">IFERROR(IF(AL15="n.a.", -AV15, IF(AV15="n.a.", AL15, AL15-AV15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -3648,11 +3662,11 @@
         <f t="shared" ref="AG15" si="17">IFERROR(AC15-AF15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AH15" s="172" t="str">
+      <c r="AH15" s="169" t="str">
         <f t="shared" ref="AH15" si="18">IFERROR(IF(AN15="n.a.", -AX15, IF(AX15="n.a.", AN15, AN15-AX15)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="177" t="str">
+      <c r="AI15" s="174" t="str">
         <f>IFERROR(VLOOKUP($B15,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
@@ -3672,19 +3686,19 @@
         <f t="shared" ref="AM15" si="19">IFERROR(-AL15+AI15,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN15" s="143" t="str">
+      <c r="AN15" s="142" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="131" t="e">
+      <c r="AO15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP15" s="131" t="e">
+      <c r="AP15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ15" s="131" t="e">
+      <c r="AQ15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3712,90 +3726,90 @@
         <f t="shared" ref="AW15:AW16" si="20">IFERROR(-AS15+AV15, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX15" s="143" t="str">
+      <c r="AX15" s="142" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY15" s="131" t="e">
+      <c r="AY15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ15" s="131" t="e">
+      <c r="AZ15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA15" s="131" t="e">
+      <c r="BA15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB15" s="131" t="e">
+      <c r="BB15" s="130" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="166" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="125"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="131" t="e">
+    <row r="16" spans="1:56" s="189" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="181"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="131" t="e">
+      <c r="K16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="131" t="e">
+      <c r="L16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="131" t="e">
+      <c r="M16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="131" t="e">
+      <c r="N16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="131" t="e">
+      <c r="O16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="119" t="e">
+      <c r="P16" s="186" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="165"/>
-      <c r="X16" s="165"/>
-      <c r="Y16" s="165"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
       <c r="AC16" s="126" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AD16" s="127" t="str">
+      <c r="AD16" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AE16" s="127" t="str">
+      <c r="AE16" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF16" s="144" t="str">
+      <c r="AF16" s="143" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3803,23 +3817,23 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AH16" s="173" t="str">
+      <c r="AH16" s="170" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI16" s="177" t="str">
+      <c r="AI16" s="174" t="str">
         <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AJ16" s="127" t="str">
+      <c r="AJ16" s="143" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AK16" s="130" t="str">
+      <c r="AK16" s="188" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AL16" s="127" t="str">
+      <c r="AL16" s="143" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
@@ -3827,23 +3841,23 @@
         <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
-      <c r="AN16" s="144" t="str">
+      <c r="AN16" s="143" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="131" t="e">
+      <c r="AO16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP16" s="131" t="e">
+      <c r="AP16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ16" s="131" t="e">
+      <c r="AQ16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR16" s="131" t="e">
+      <c r="AR16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3851,15 +3865,15 @@
         <f>IFERROR(VLOOKUP($B16,ID!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AT16" s="127" t="str">
+      <c r="AT16" s="143" t="str">
         <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AU16" s="127" t="str">
+      <c r="AU16" s="143" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AV16" s="127" t="str">
+      <c r="AV16" s="143" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
@@ -3867,171 +3881,171 @@
         <f t="shared" si="20"/>
         <v>n.a.</v>
       </c>
-      <c r="AX16" s="144" t="str">
+      <c r="AX16" s="143" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY16" s="131" t="e">
+      <c r="AY16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ16" s="131" t="e">
+      <c r="AZ16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA16" s="131" t="e">
+      <c r="BA16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB16" s="131" t="e">
+      <c r="BB16" s="186" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:54" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="157">
+      <c r="B17" s="155"/>
+      <c r="C17" s="156">
         <f>SUM(C4:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="157">
+      <c r="D17" s="156">
         <f>SUM(D4:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="158">
+      <c r="E17" s="157">
         <f>SUM(E4:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="158" t="e">
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="157" t="e">
         <f t="shared" ref="J17:P17" si="21">SUM(J4:J16)</f>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="158" t="e">
+      <c r="K17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="158" t="e">
+      <c r="L17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="M17" s="158" t="e">
+      <c r="M17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="N17" s="158" t="e">
+      <c r="N17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="O17" s="158" t="e">
+      <c r="O17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="P17" s="158" t="e">
+      <c r="P17" s="157" t="e">
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="Q17" s="158"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="159"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="157"/>
-      <c r="AD17" s="157" t="str">
+      <c r="Q17" s="157"/>
+      <c r="R17" s="157"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="157"/>
+      <c r="U17" s="157"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="159"/>
+      <c r="Y17" s="159"/>
+      <c r="Z17" s="157"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="157"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AE17" s="157" t="str">
+      <c r="AE17" s="156" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AF17" s="157" t="str">
+      <c r="AF17" s="156" t="str">
         <f>IFERROR(IF(AL17="n.a.", -AV17, IF(AV17="n.a.", AL17, AL17-AV17)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AG17" s="157"/>
-      <c r="AH17" s="176" t="str">
+      <c r="AG17" s="156"/>
+      <c r="AH17" s="173" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="162" t="str">
+      <c r="AI17" s="160"/>
+      <c r="AJ17" s="161" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AK17" s="162" t="str">
+      <c r="AK17" s="161" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="AL17" s="162" t="str">
+      <c r="AL17" s="161" t="str">
         <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AM17" s="157"/>
-      <c r="AN17" s="174" t="str">
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="171" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO17" s="158" t="e">
+      <c r="AO17" s="157" t="e">
         <f>SUM(AO4:AO16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP17" s="158" t="e">
+      <c r="AP17" s="157" t="e">
         <f>SUM(AP4:AP16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ17" s="158" t="e">
+      <c r="AQ17" s="157" t="e">
         <f>SUM(AQ4:AQ16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR17" s="158" t="e">
+      <c r="AR17" s="157" t="e">
         <f>SUM(AR4:AR16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS17" s="161"/>
-      <c r="AT17" s="163" t="str">
+      <c r="AS17" s="160"/>
+      <c r="AT17" s="162" t="str">
         <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
-      <c r="AU17" s="163" t="str">
+      <c r="AU17" s="162" t="str">
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AV17" s="162" t="str">
+      <c r="AV17" s="161" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AW17" s="157"/>
-      <c r="AX17" s="157" t="str">
+      <c r="AW17" s="156"/>
+      <c r="AX17" s="156" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY17" s="158" t="e">
+      <c r="AY17" s="157" t="e">
         <f>SUM(AY4:AY16)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ17" s="158" t="e">
+      <c r="AZ17" s="157" t="e">
         <f>SUM(AZ4:AZ16)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA17" s="158" t="e">
+      <c r="BA17" s="157" t="e">
         <f>SUM(BA4:BA16)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB17" s="175" t="e">
+      <c r="BB17" s="172" t="e">
         <f>SUM(BB4:BB16)</f>
         <v>#N/A</v>
       </c>
@@ -4059,9 +4073,9 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
-      <c r="W18" s="152"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
@@ -4119,9 +4133,9 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
@@ -4175,9 +4189,9 @@
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
-      <c r="W20" s="152"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
       <c r="AB20" s="17"/>
@@ -4231,9 +4245,9 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="W21" s="152"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
       <c r="Z21" s="17"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="17"/>
@@ -4287,9 +4301,9 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
@@ -4343,9 +4357,9 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="153"/>
+      <c r="Y23" s="153"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
@@ -4399,9 +4413,9 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="152"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="153"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
       <c r="AB24" s="17"/>
@@ -4455,9 +4469,9 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="17"/>
@@ -4511,9 +4525,9 @@
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="153"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
       <c r="AB26" s="17"/>
@@ -4567,9 +4581,9 @@
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="17"/>
@@ -4623,9 +4637,9 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
       <c r="AB28" s="17"/>
@@ -4679,9 +4693,9 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="154"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
@@ -4735,9 +4749,9 @@
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="153"/>
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
       <c r="AB30" s="17"/>
@@ -4791,9 +4805,9 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="153"/>
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
@@ -4847,9 +4861,9 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
-      <c r="W32" s="152"/>
-      <c r="X32" s="154"/>
-      <c r="Y32" s="154"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="153"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
@@ -4903,9 +4917,9 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="152"/>
-      <c r="X33" s="154"/>
-      <c r="Y33" s="154"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
       <c r="AB33" s="17"/>
@@ -4959,9 +4973,9 @@
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
-      <c r="W34" s="152"/>
-      <c r="X34" s="154"/>
-      <c r="Y34" s="154"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="153"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
       <c r="AB34" s="17"/>
@@ -5015,9 +5029,9 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
-      <c r="W35" s="152"/>
-      <c r="X35" s="154"/>
-      <c r="Y35" s="154"/>
+      <c r="W35" s="151"/>
+      <c r="X35" s="153"/>
+      <c r="Y35" s="153"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
       <c r="AB35" s="17"/>
@@ -5071,9 +5085,9 @@
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
-      <c r="W36" s="152"/>
-      <c r="X36" s="154"/>
-      <c r="Y36" s="154"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="17"/>
@@ -5127,9 +5141,9 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" s="152"/>
-      <c r="X37" s="154"/>
-      <c r="Y37" s="154"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="153"/>
+      <c r="Y37" s="153"/>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
       <c r="AB37" s="17"/>
@@ -5183,9 +5197,9 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
-      <c r="W38" s="152"/>
-      <c r="X38" s="154"/>
-      <c r="Y38" s="154"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="153"/>
+      <c r="Y38" s="153"/>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
@@ -5239,9 +5253,9 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="152"/>
-      <c r="X39" s="154"/>
-      <c r="Y39" s="154"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="153"/>
+      <c r="Y39" s="153"/>
       <c r="Z39" s="17"/>
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
@@ -5295,9 +5309,9 @@
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
-      <c r="W40" s="152"/>
-      <c r="X40" s="154"/>
-      <c r="Y40" s="154"/>
+      <c r="W40" s="151"/>
+      <c r="X40" s="153"/>
+      <c r="Y40" s="153"/>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17"/>
@@ -5351,9 +5365,9 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="152"/>
-      <c r="X41" s="154"/>
-      <c r="Y41" s="154"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17"/>
@@ -5407,9 +5421,9 @@
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="154"/>
-      <c r="Y42" s="154"/>
+      <c r="W42" s="151"/>
+      <c r="X42" s="153"/>
+      <c r="Y42" s="153"/>
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17"/>
@@ -5463,9 +5477,9 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="154"/>
-      <c r="Y43" s="154"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="153"/>
+      <c r="Y43" s="153"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
@@ -5519,9 +5533,9 @@
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="154"/>
-      <c r="Y44" s="154"/>
+      <c r="W44" s="151"/>
+      <c r="X44" s="153"/>
+      <c r="Y44" s="153"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
@@ -5575,9 +5589,9 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
-      <c r="W45" s="152"/>
-      <c r="X45" s="154"/>
-      <c r="Y45" s="154"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="153"/>
+      <c r="Y45" s="153"/>
       <c r="Z45" s="17"/>
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
@@ -5631,9 +5645,9 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
-      <c r="W46" s="152"/>
-      <c r="X46" s="154"/>
-      <c r="Y46" s="154"/>
+      <c r="W46" s="151"/>
+      <c r="X46" s="153"/>
+      <c r="Y46" s="153"/>
       <c r="Z46" s="17"/>
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
@@ -5687,9 +5701,9 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="152"/>
-      <c r="X47" s="154"/>
-      <c r="Y47" s="154"/>
+      <c r="W47" s="151"/>
+      <c r="X47" s="153"/>
+      <c r="Y47" s="153"/>
       <c r="Z47" s="17"/>
       <c r="AA47" s="17"/>
       <c r="AB47" s="17"/>
@@ -5743,9 +5757,9 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="152"/>
-      <c r="X48" s="154"/>
-      <c r="Y48" s="154"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="153"/>
+      <c r="Y48" s="153"/>
       <c r="Z48" s="17"/>
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
@@ -5799,9 +5813,9 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
-      <c r="W49" s="152"/>
-      <c r="X49" s="154"/>
-      <c r="Y49" s="154"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="153"/>
+      <c r="Y49" s="153"/>
       <c r="Z49" s="17"/>
       <c r="AA49" s="17"/>
       <c r="AB49" s="17"/>
@@ -5855,9 +5869,9 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
-      <c r="W50" s="152"/>
-      <c r="X50" s="154"/>
-      <c r="Y50" s="154"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="153"/>
+      <c r="Y50" s="153"/>
       <c r="Z50" s="17"/>
       <c r="AA50" s="17"/>
       <c r="AB50" s="17"/>
@@ -5911,9 +5925,9 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
-      <c r="W51" s="152"/>
-      <c r="X51" s="154"/>
-      <c r="Y51" s="154"/>
+      <c r="W51" s="151"/>
+      <c r="X51" s="153"/>
+      <c r="Y51" s="153"/>
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
@@ -5967,9 +5981,9 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
-      <c r="W52" s="152"/>
-      <c r="X52" s="154"/>
-      <c r="Y52" s="154"/>
+      <c r="W52" s="151"/>
+      <c r="X52" s="153"/>
+      <c r="Y52" s="153"/>
       <c r="Z52" s="17"/>
       <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
@@ -6023,9 +6037,9 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
-      <c r="W53" s="152"/>
-      <c r="X53" s="154"/>
-      <c r="Y53" s="154"/>
+      <c r="W53" s="151"/>
+      <c r="X53" s="153"/>
+      <c r="Y53" s="153"/>
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
@@ -6079,9 +6093,9 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
-      <c r="W54" s="152"/>
-      <c r="X54" s="154"/>
-      <c r="Y54" s="154"/>
+      <c r="W54" s="151"/>
+      <c r="X54" s="153"/>
+      <c r="Y54" s="153"/>
       <c r="Z54" s="17"/>
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
@@ -6135,9 +6149,9 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
-      <c r="W55" s="152"/>
-      <c r="X55" s="154"/>
-      <c r="Y55" s="154"/>
+      <c r="W55" s="151"/>
+      <c r="X55" s="153"/>
+      <c r="Y55" s="153"/>
       <c r="Z55" s="17"/>
       <c r="AA55" s="17"/>
       <c r="AB55" s="17"/>
@@ -6191,9 +6205,9 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
-      <c r="W56" s="152"/>
-      <c r="X56" s="154"/>
-      <c r="Y56" s="154"/>
+      <c r="W56" s="151"/>
+      <c r="X56" s="153"/>
+      <c r="Y56" s="153"/>
       <c r="Z56" s="17"/>
       <c r="AA56" s="17"/>
       <c r="AB56" s="17"/>
@@ -6247,9 +6261,9 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
-      <c r="W57" s="152"/>
-      <c r="X57" s="154"/>
-      <c r="Y57" s="154"/>
+      <c r="W57" s="151"/>
+      <c r="X57" s="153"/>
+      <c r="Y57" s="153"/>
       <c r="Z57" s="17"/>
       <c r="AA57" s="17"/>
       <c r="AB57" s="17"/>
@@ -6303,9 +6317,9 @@
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
-      <c r="W58" s="152"/>
-      <c r="X58" s="154"/>
-      <c r="Y58" s="154"/>
+      <c r="W58" s="151"/>
+      <c r="X58" s="153"/>
+      <c r="Y58" s="153"/>
       <c r="Z58" s="17"/>
       <c r="AA58" s="17"/>
       <c r="AB58" s="17"/>
@@ -6359,9 +6373,9 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
-      <c r="W59" s="152"/>
-      <c r="X59" s="154"/>
-      <c r="Y59" s="154"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="153"/>
+      <c r="Y59" s="153"/>
       <c r="Z59" s="17"/>
       <c r="AA59" s="17"/>
       <c r="AB59" s="17"/>
@@ -6415,9 +6429,9 @@
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
-      <c r="W60" s="152"/>
-      <c r="X60" s="154"/>
-      <c r="Y60" s="154"/>
+      <c r="W60" s="151"/>
+      <c r="X60" s="153"/>
+      <c r="Y60" s="153"/>
       <c r="Z60" s="17"/>
       <c r="AA60" s="17"/>
       <c r="AB60" s="17"/>
@@ -6471,9 +6485,9 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
-      <c r="W61" s="152"/>
-      <c r="X61" s="154"/>
-      <c r="Y61" s="154"/>
+      <c r="W61" s="151"/>
+      <c r="X61" s="153"/>
+      <c r="Y61" s="153"/>
       <c r="Z61" s="17"/>
       <c r="AA61" s="17"/>
       <c r="AB61" s="17"/>
@@ -6527,9 +6541,9 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
-      <c r="W62" s="152"/>
-      <c r="X62" s="154"/>
-      <c r="Y62" s="154"/>
+      <c r="W62" s="151"/>
+      <c r="X62" s="153"/>
+      <c r="Y62" s="153"/>
       <c r="Z62" s="17"/>
       <c r="AA62" s="17"/>
       <c r="AB62" s="17"/>
@@ -6583,9 +6597,9 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
-      <c r="W63" s="152"/>
-      <c r="X63" s="154"/>
-      <c r="Y63" s="154"/>
+      <c r="W63" s="151"/>
+      <c r="X63" s="153"/>
+      <c r="Y63" s="153"/>
       <c r="Z63" s="17"/>
       <c r="AA63" s="17"/>
       <c r="AB63" s="17"/>
@@ -6639,9 +6653,9 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
-      <c r="W64" s="152"/>
-      <c r="X64" s="154"/>
-      <c r="Y64" s="154"/>
+      <c r="W64" s="151"/>
+      <c r="X64" s="153"/>
+      <c r="Y64" s="153"/>
       <c r="Z64" s="17"/>
       <c r="AA64" s="17"/>
       <c r="AB64" s="17"/>
@@ -6695,9 +6709,9 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
-      <c r="W65" s="152"/>
-      <c r="X65" s="154"/>
-      <c r="Y65" s="154"/>
+      <c r="W65" s="151"/>
+      <c r="X65" s="153"/>
+      <c r="Y65" s="153"/>
       <c r="Z65" s="17"/>
       <c r="AA65" s="17"/>
       <c r="AB65" s="17"/>
@@ -6751,9 +6765,9 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
-      <c r="W66" s="152"/>
-      <c r="X66" s="154"/>
-      <c r="Y66" s="154"/>
+      <c r="W66" s="151"/>
+      <c r="X66" s="153"/>
+      <c r="Y66" s="153"/>
       <c r="Z66" s="17"/>
       <c r="AA66" s="17"/>
       <c r="AB66" s="17"/>
@@ -6807,9 +6821,9 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
-      <c r="W67" s="152"/>
-      <c r="X67" s="154"/>
-      <c r="Y67" s="154"/>
+      <c r="W67" s="151"/>
+      <c r="X67" s="153"/>
+      <c r="Y67" s="153"/>
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
       <c r="AB67" s="17"/>
@@ -6863,9 +6877,9 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="152"/>
-      <c r="X68" s="154"/>
-      <c r="Y68" s="154"/>
+      <c r="W68" s="151"/>
+      <c r="X68" s="153"/>
+      <c r="Y68" s="153"/>
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
@@ -6919,9 +6933,9 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="152"/>
-      <c r="X69" s="154"/>
-      <c r="Y69" s="154"/>
+      <c r="W69" s="151"/>
+      <c r="X69" s="153"/>
+      <c r="Y69" s="153"/>
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
@@ -6975,9 +6989,9 @@
       <c r="T70" s="17"/>
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
-      <c r="W70" s="152"/>
-      <c r="X70" s="154"/>
-      <c r="Y70" s="154"/>
+      <c r="W70" s="151"/>
+      <c r="X70" s="153"/>
+      <c r="Y70" s="153"/>
       <c r="Z70" s="17"/>
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
@@ -7251,54 +7265,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="179" t="s">
+      <c r="D2" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="179" t="s">
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="179" t="s">
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="179" t="s">
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="180" t="s">
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="180"/>
-      <c r="V2" s="180"/>
-      <c r="W2" s="180"/>
-      <c r="X2" s="179" t="s">
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="180"/>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="180"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="179" t="s">
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="180"/>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="182" t="s">
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="183"/>
+      <c r="AI2" s="180"/>
       <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
@@ -7904,7 +7918,7 @@
       <c r="AJ7" s="53"/>
     </row>
     <row r="8" spans="1:36" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="133" t="s">
         <v>85</v>
       </c>
       <c r="B8" s="39">
@@ -9251,10 +9265,10 @@
       <c r="D2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="144" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="147" t="s">
         <v>94</v>
       </c>
       <c r="G2" s="5">
@@ -9870,10 +9884,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="133"/>
+      <c r="A3" s="132"/>
       <c r="B3"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="149"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="148"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -9968,10 +9982,10 @@
       <c r="CT3"/>
     </row>
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="133"/>
+      <c r="A4" s="132"/>
       <c r="B4"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="148"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -10066,10 +10080,10 @@
       <c r="CT4"/>
     </row>
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="133"/>
+      <c r="A5" s="132"/>
       <c r="B5"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="149"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="148"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -10164,10 +10178,10 @@
       <c r="CT5"/>
     </row>
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133"/>
+      <c r="A6" s="132"/>
       <c r="B6"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="149"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="148"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -10262,10 +10276,10 @@
       <c r="CT6"/>
     </row>
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="133"/>
+      <c r="A7" s="132"/>
       <c r="B7"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="149"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="148"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -10360,10 +10374,10 @@
       <c r="CT7"/>
     </row>
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="133"/>
+      <c r="A8" s="132"/>
       <c r="B8"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="149"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="148"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -10458,10 +10472,10 @@
       <c r="CT8"/>
     </row>
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="133"/>
+      <c r="A9" s="132"/>
       <c r="B9"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="149"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="148"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -10556,10 +10570,10 @@
       <c r="CT9"/>
     </row>
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="133"/>
+      <c r="A10" s="132"/>
       <c r="B10"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="149"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="148"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -10654,10 +10668,10 @@
       <c r="CT10"/>
     </row>
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="133"/>
+      <c r="A11" s="132"/>
       <c r="B11"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="149"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="148"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -10752,10 +10766,10 @@
       <c r="CT11"/>
     </row>
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="133"/>
+      <c r="A12" s="132"/>
       <c r="B12"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="149"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="148"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -10850,10 +10864,10 @@
       <c r="CT12"/>
     </row>
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
+      <c r="A13" s="132"/>
       <c r="B13"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="149"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="148"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -10948,10 +10962,10 @@
       <c r="CT13"/>
     </row>
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="133"/>
+      <c r="A14" s="132"/>
       <c r="B14"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="149"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="148"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -11046,10 +11060,10 @@
       <c r="CT14"/>
     </row>
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="133"/>
+      <c r="A15" s="132"/>
       <c r="B15"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="149"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="148"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -11146,61 +11160,61 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="146"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="145"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="146"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="145"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="146"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="145"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="146"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="145"/>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="146"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="145"/>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="146"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="145"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="146"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="145"/>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="146"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="145"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="146"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="145"/>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
@@ -12547,7 +12561,7 @@
       <c r="E2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="147" t="s">
         <v>94</v>
       </c>
       <c r="G2" s="5">
@@ -13166,86 +13180,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="149"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="149"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="149"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="149"/>
+      <c r="F7" s="148"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="149"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="149"/>
+      <c r="F9" s="148"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="149"/>
+      <c r="F10" s="148"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="149"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="149"/>
+      <c r="F12" s="148"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="149"/>
+      <c r="F13" s="148"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="149"/>
+      <c r="F14" s="148"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="149"/>
+      <c r="F15" s="148"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="146"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -13342,8 +13356,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="146"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -13440,8 +13454,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="146"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -36350,8 +36364,8 @@
       <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="145" t="s">
+      <c r="E1" s="146"/>
+      <c r="F1" s="144" t="s">
         <v>75</v>
       </c>
     </row>
@@ -36368,7 +36382,7 @@
       <c r="D2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>94</v>
       </c>
       <c r="F2" s="5">
@@ -36986,7 +37000,7 @@
     <row r="3" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="E3" s="149"/>
+      <c r="E3" s="148"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -37083,7 +37097,7 @@
     <row r="4" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="E4" s="149"/>
+      <c r="E4" s="148"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -37180,7 +37194,7 @@
     <row r="5" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="E5" s="149"/>
+      <c r="E5" s="148"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -37277,7 +37291,7 @@
     <row r="6" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="E6" s="149"/>
+      <c r="E6" s="148"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -37374,7 +37388,7 @@
     <row r="7" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="E7" s="149"/>
+      <c r="E7" s="148"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -37471,7 +37485,7 @@
     <row r="8" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="E8" s="149"/>
+      <c r="E8" s="148"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
@@ -37568,7 +37582,7 @@
     <row r="9" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="E9" s="149"/>
+      <c r="E9" s="148"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -37665,7 +37679,7 @@
     <row r="10" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="E10" s="149"/>
+      <c r="E10" s="148"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -37762,7 +37776,7 @@
     <row r="11" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="E11" s="149"/>
+      <c r="E11" s="148"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -37835,7 +37849,7 @@
       <c r="BW11"/>
       <c r="BX11"/>
       <c r="BY11"/>
-      <c r="BZ11" s="135"/>
+      <c r="BZ11" s="134"/>
       <c r="CA11"/>
       <c r="CB11"/>
       <c r="CC11"/>
@@ -37859,7 +37873,7 @@
     <row r="12" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="E12" s="149"/>
+      <c r="E12" s="148"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -37956,7 +37970,7 @@
     <row r="13" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="E13" s="149"/>
+      <c r="E13" s="148"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -38053,7 +38067,7 @@
     <row r="14" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="E14" s="149"/>
+      <c r="E14" s="148"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -38150,7 +38164,7 @@
     <row r="15" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="E15" s="149"/>
+      <c r="E15" s="148"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -38247,14 +38261,14 @@
     <row r="16" spans="1:158" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="146"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="145"/>
     </row>
     <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="146"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="145"/>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
@@ -39596,7 +39610,7 @@
       <c r="E2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="148" t="s">
+      <c r="F2" s="147" t="s">
         <v>94</v>
       </c>
       <c r="G2" s="5">
@@ -40215,86 +40229,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="149"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="149"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="149"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="149"/>
+      <c r="F6" s="148"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="149"/>
+      <c r="F7" s="148"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="149"/>
+      <c r="F8" s="148"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="149"/>
+      <c r="F9" s="148"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="149"/>
+      <c r="F10" s="148"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="149"/>
+      <c r="F11" s="148"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="149"/>
+      <c r="F12" s="148"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="149"/>
+      <c r="F13" s="148"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="149"/>
+      <c r="F14" s="148"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="149"/>
+      <c r="F15" s="148"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="146"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -40391,8 +40405,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="146"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C4065-278C-4D19-9477-E500BB324819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08FEBE7-211D-4652-AF2F-A05A7498EC69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,21 +1209,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1246,6 +1231,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1898,15 +1898,15 @@
       <c r="H4" s="131"/>
       <c r="I4" s="131"/>
       <c r="J4" s="119" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="119" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="119" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="119" t="e">
@@ -2053,15 +2053,15 @@
       <c r="H5" s="131"/>
       <c r="I5" s="131"/>
       <c r="J5" s="119" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="119" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="119" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="119" t="e">
@@ -2208,15 +2208,15 @@
       <c r="H6" s="131"/>
       <c r="I6" s="131"/>
       <c r="J6" s="119" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="119" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="119" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="119" t="e">
@@ -2363,15 +2363,15 @@
       <c r="H7" s="131"/>
       <c r="I7" s="131"/>
       <c r="J7" s="119" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="119" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="119" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="119" t="e">
@@ -2518,15 +2518,15 @@
       <c r="H8" s="131"/>
       <c r="I8" s="131"/>
       <c r="J8" s="119" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="119" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="119" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="119" t="e">
@@ -2673,15 +2673,15 @@
       <c r="H9" s="131"/>
       <c r="I9" s="131"/>
       <c r="J9" s="119" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="119" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="119" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="119" t="e">
@@ -2828,15 +2828,15 @@
       <c r="H10" s="131"/>
       <c r="I10" s="131"/>
       <c r="J10" s="119" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="119" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="119" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="119" t="e">
@@ -2983,15 +2983,15 @@
       <c r="H11" s="131"/>
       <c r="I11" s="131"/>
       <c r="J11" s="119" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="119" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="119" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="119" t="e">
@@ -3138,15 +3138,15 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
       <c r="J12" s="119" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="119" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="119" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="119" t="e">
@@ -3293,15 +3293,15 @@
       <c r="H13" s="131"/>
       <c r="I13" s="131"/>
       <c r="J13" s="119" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="119" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="119" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="119" t="e">
@@ -3448,15 +3448,15 @@
       <c r="H14" s="131"/>
       <c r="I14" s="131"/>
       <c r="J14" s="119" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="119" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="119" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="119" t="e">
@@ -3603,15 +3603,15 @@
       <c r="H15" s="131"/>
       <c r="I15" s="131"/>
       <c r="J15" s="119" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="119" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="119" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="119" t="e">
@@ -3747,41 +3747,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="189" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="181"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="186" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
+    <row r="16" spans="1:56" s="184" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="176"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="130" t="e">
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="186" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
+      <c r="K16" s="130" t="e">
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="186" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
+      <c r="L16" s="130" t="e">
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" s="186" t="e">
+      <c r="M16" s="181" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N16" s="186" t="e">
+      <c r="N16" s="181" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O16" s="186" t="e">
+      <c r="O16" s="181" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P16" s="186" t="e">
+      <c r="P16" s="181" t="e">
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3791,9 +3791,9 @@
       <c r="T16" s="163"/>
       <c r="U16" s="163"/>
       <c r="V16" s="163"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
       <c r="Z16" s="163"/>
       <c r="AA16" s="163"/>
       <c r="AB16" s="163"/>
@@ -3829,7 +3829,7 @@
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AK16" s="188" t="str">
+      <c r="AK16" s="183" t="str">
         <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
@@ -3845,19 +3845,19 @@
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="186" t="e">
+      <c r="AO16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AP16" s="186" t="e">
+      <c r="AP16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ16" s="186" t="e">
+      <c r="AQ16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AR16" s="186" t="e">
+      <c r="AR16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3885,19 +3885,19 @@
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
-      <c r="AY16" s="186" t="e">
+      <c r="AY16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AZ16" s="186" t="e">
+      <c r="AZ16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BA16" s="186" t="e">
+      <c r="BA16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BB16" s="186" t="e">
+      <c r="BB16" s="181" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7265,54 +7265,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="176" t="s">
+      <c r="D2" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="176" t="s">
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="176" t="s">
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="177"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="176" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="177"/>
-      <c r="R2" s="177"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="177" t="s">
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="177"/>
-      <c r="V2" s="177"/>
-      <c r="W2" s="177"/>
-      <c r="X2" s="176" t="s">
+      <c r="U2" s="186"/>
+      <c r="V2" s="186"/>
+      <c r="W2" s="186"/>
+      <c r="X2" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="177"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="176" t="s">
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="177"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="179" t="s">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="186"/>
+      <c r="AG2" s="187"/>
+      <c r="AH2" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="180"/>
+      <c r="AI2" s="189"/>
       <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">

--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08FEBE7-211D-4652-AF2F-A05A7498EC69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54944683-59C1-4EA8-8FA6-695469D69F58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>Oct</t>
   </si>
   <si>
-    <t>Nov</t>
-  </si>
-  <si>
     <t>L30D</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>Monthly Inbounds (US$)</t>
+  </si>
+  <si>
+    <t>L90D</t>
   </si>
 </sst>
 </file>
@@ -1654,13 +1654,13 @@
         <v>69</v>
       </c>
       <c r="J2" s="106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="107"/>
       <c r="L2" s="107"/>
       <c r="M2" s="108"/>
       <c r="N2" s="106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O2" s="107"/>
       <c r="P2" s="108"/>
@@ -1759,7 +1759,7 @@
         <v>43770</v>
       </c>
       <c r="M3" s="105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="105">
         <v>43709</v>
@@ -1768,7 +1768,7 @@
         <v>43739</v>
       </c>
       <c r="P3" s="105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="105">
         <v>43709</v>
@@ -1777,7 +1777,7 @@
         <v>43739</v>
       </c>
       <c r="S3" s="105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T3" s="105">
         <v>43709</v>
@@ -1786,7 +1786,7 @@
         <v>43739</v>
       </c>
       <c r="V3" s="105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W3" s="105">
         <v>43709</v>
@@ -1822,7 +1822,7 @@
         <v>70</v>
       </c>
       <c r="AH3" s="94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI3" s="94" t="s">
         <v>36</v>
@@ -1840,7 +1840,7 @@
         <v>70</v>
       </c>
       <c r="AN3" s="94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO3" s="102">
         <v>43709</v>
@@ -1852,7 +1852,7 @@
         <v>43770</v>
       </c>
       <c r="AR3" s="164" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS3" s="96" t="s">
         <v>36</v>
@@ -1870,7 +1870,7 @@
         <v>70</v>
       </c>
       <c r="AX3" s="165" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY3" s="102">
         <v>43709</v>
@@ -1882,7 +1882,7 @@
         <v>43770</v>
       </c>
       <c r="BB3" s="168" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
@@ -9186,7 +9186,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:E20"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9266,10 +9266,10 @@
         <v>92</v>
       </c>
       <c r="E2" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="147" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>
@@ -12559,10 +12559,10 @@
         <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="147" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>
@@ -36383,7 +36383,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="147" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2" s="5">
         <v>43709</v>
@@ -39608,10 +39608,10 @@
         <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="147" t="s">
         <v>93</v>
-      </c>
-      <c r="F2" s="147" t="s">
-        <v>94</v>
       </c>
       <c r="G2" s="5">
         <v>43709</v>

--- a/ID/wc_template_ID_v3.xlsx
+++ b/ID/wc_template_ID_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\ID\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54944683-59C1-4EA8-8FA6-695469D69F58}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017A337F-A662-4EBF-8CDB-6BC5839AA267}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>L90D</t>
+  </si>
+  <si>
+    <t>Nov</t>
   </si>
 </sst>
 </file>
@@ -12559,7 +12562,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="147" t="s">
         <v>93</v>
@@ -36303,7 +36306,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39608,7 +39611,7 @@
         <v>92</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="147" t="s">
         <v>93</v>
